--- a/documents/businesses/SEB/TradeFIRST Self Assessment Checklist 1Apr2021.xlsx
+++ b/documents/businesses/SEB/TradeFIRST Self Assessment Checklist 1Apr2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuswqa01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cusjkk01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67F265-F4BD-4813-A93A-48C1DA14CA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83943FC3-163D-4E13-8167-4F0F2FB42638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="20" r:id="rId1"/>
@@ -8117,7 +8117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8173,9 +8173,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8374,26 +8371,15 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8408,9 +8394,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8425,15 +8408,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -8444,9 +8418,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8506,10 +8477,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8522,7 +8489,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -8531,89 +8497,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8623,6 +8506,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8692,6 +8662,96 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8719,95 +8779,55 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8847,15 +8867,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>739140</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>853440</xdr:rowOff>
+          <xdr:rowOff>850900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8902,13 +8922,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>472440</xdr:rowOff>
+          <xdr:rowOff>469900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>739140</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>990600</xdr:rowOff>
         </xdr:to>
@@ -8957,15 +8977,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>662940</xdr:rowOff>
+          <xdr:rowOff>660400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>739140</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>1173480</xdr:rowOff>
+          <xdr:rowOff>1174750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9012,15 +9032,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>487680</xdr:rowOff>
+          <xdr:rowOff>488950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>746760</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>1005840</xdr:rowOff>
+          <xdr:rowOff>1003300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9435,126 +9455,126 @@
   <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.36328125" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48.54296875" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:31" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="115" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="142" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="145" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="136" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="148" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="139" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="139" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-    </row>
-    <row r="9" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="151" t="s">
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+    </row>
+    <row r="9" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="142" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="129" t="s">
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="144"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="118" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="130"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="129" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="119"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="118" t="s">
         <v>372</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="130"/>
-    </row>
-    <row r="12" spans="1:31" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="142" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="119"/>
+    </row>
+    <row r="12" spans="1:31" ht="45.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -9582,16 +9602,17 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139" t="s">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="130" t="s">
         <v>504</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/t+iFlcr0nd+9dRYODFDbKQWkMFps/DfMes3jF/LQbU/YlW2YgNayKm00YejQWIpp/IrhUedw5Y/zk59JStWyw==" saltValue="YkbNtKW/surQaSzqDJeCBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:E13"/>
@@ -9628,167 +9649,170 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+    </row>
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="115"/>
-    </row>
-    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
-      <c r="B5" s="112" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="229"/>
+    </row>
+    <row r="5" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="157"/>
+      <c r="B5" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="123" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
-      <c r="B6" s="112" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A6" s="157"/>
+      <c r="B6" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="123" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
-      <c r="B7" s="112" t="s">
+      <c r="F6" s="125"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A7" s="157"/>
+      <c r="B7" s="123" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="123" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="F7" s="125"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="123" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="123" t="s">
         <v>423</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="82.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="98" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="123" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="N0Cv1sKJssz+eI+NM3TIk0oXpFFnKGGrcdheOII2VyH+CW4zpKfDzlBmqqwI+LoxCInRtoa8+cavIbtBWtOv6w==" saltValue="PrF0lsIhH1ZxEmRWIlWp4w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:G2"/>
@@ -9819,152 +9843,155 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+    </row>
+    <row r="4" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="163" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="115"/>
-    </row>
-    <row r="5" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
-      <c r="B5" s="112" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="229"/>
+    </row>
+    <row r="5" spans="1:7" ht="184" x14ac:dyDescent="0.35">
+      <c r="A5" s="157"/>
+      <c r="B5" s="123" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="123" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="228" t="s">
         <v>221</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
-      <c r="B6" s="112" t="s">
+      <c r="F5" s="230"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="157"/>
+      <c r="B6" s="123" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="228" t="s">
         <v>214</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="F6" s="230"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="123" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="228" t="s">
         <v>222</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="136.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="F7" s="230"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A8" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="123" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="123" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="228" t="s">
         <v>222</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="74"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="KL0LOP4V9XAyqKRhJLG9X9GvIWhPfJACjCi0jiVzqaalZWe/vra6MAjvzi12ChywiVspZG1aBV44fdhqG7RY0w==" saltValue="cymgf22RTSvcHLJs+zNBKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D4"/>
@@ -9995,337 +10022,340 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="175" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="164" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="163" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="115"/>
-    </row>
-    <row r="5" spans="1:7" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="175"/>
-      <c r="B5" s="112" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="229"/>
+    </row>
+    <row r="5" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="164"/>
+      <c r="B5" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="115"/>
-    </row>
-    <row r="6" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175"/>
-      <c r="B6" s="134" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="229"/>
+    </row>
+    <row r="6" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="164"/>
+      <c r="B6" s="123" t="s">
         <v>542</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="224" t="s">
         <v>198</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="171" x14ac:dyDescent="0.3">
-      <c r="A7" s="175"/>
-      <c r="B7" s="134" t="s">
+      <c r="F6" s="121"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="164"/>
+      <c r="B7" s="123" t="s">
         <v>572</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="123" t="s">
         <v>573</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="224" t="s">
         <v>199</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="175"/>
-      <c r="B8" s="134" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="164"/>
+      <c r="B8" s="123" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="123" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="231" t="s">
         <v>200</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="175"/>
-      <c r="B9" s="134" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A9" s="164"/>
+      <c r="B9" s="123" t="s">
         <v>566</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="224" t="s">
         <v>201</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="175"/>
-      <c r="B10" s="134" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="164"/>
+      <c r="B10" s="123" t="s">
         <v>567</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="224" t="s">
         <v>202</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="243.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
-      <c r="B11" s="134" t="s">
+      <c r="F10" s="121"/>
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" ht="243.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="164"/>
+      <c r="B11" s="123" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="123" t="s">
         <v>574</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="224" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="175" t="s">
+      <c r="F11" s="121"/>
+      <c r="G11" s="221"/>
+    </row>
+    <row r="12" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="164" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="115"/>
-    </row>
-    <row r="13" spans="1:7" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="175"/>
-      <c r="B13" s="134" t="s">
+      <c r="C12" s="123"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="233"/>
+    </row>
+    <row r="13" spans="1:7" ht="143" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="164"/>
+      <c r="B13" s="123" t="s">
         <v>575</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="123" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="224" t="s">
         <v>204</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="175"/>
-      <c r="B14" s="134" t="s">
+      <c r="F13" s="125"/>
+      <c r="G13" s="221"/>
+    </row>
+    <row r="14" spans="1:7" ht="172.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="164"/>
+      <c r="B14" s="123" t="s">
         <v>565</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="123" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="224" t="s">
         <v>205</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="112" t="s">
+      <c r="F14" s="121"/>
+      <c r="G14" s="221"/>
+    </row>
+    <row r="15" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="164"/>
+      <c r="B15" s="123" t="s">
         <v>564</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="224" t="s">
         <v>206</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="82"/>
-    </row>
-    <row r="16" spans="1:7" ht="228" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="134" t="s">
+      <c r="F15" s="121"/>
+      <c r="G15" s="221"/>
+    </row>
+    <row r="16" spans="1:7" ht="230" x14ac:dyDescent="0.35">
+      <c r="A16" s="164"/>
+      <c r="B16" s="123" t="s">
         <v>540</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="123" t="s">
         <v>577</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="224" t="s">
         <v>203</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="82"/>
-    </row>
-    <row r="17" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="175" t="s">
+      <c r="F16" s="121"/>
+      <c r="G16" s="221"/>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112" t="s">
+      <c r="C17" s="123"/>
+      <c r="D17" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="115"/>
-    </row>
-    <row r="18" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="175"/>
-      <c r="B18" s="134" t="s">
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="233"/>
+    </row>
+    <row r="18" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="164"/>
+      <c r="B18" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="224" t="s">
         <v>207</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" ht="94.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="134" t="s">
+      <c r="F18" s="121"/>
+      <c r="G18" s="221"/>
+    </row>
+    <row r="19" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A19" s="164"/>
+      <c r="B19" s="123" t="s">
         <v>536</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="224" t="s">
         <v>208</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="134" t="s">
+      <c r="F19" s="121"/>
+      <c r="G19" s="221"/>
+    </row>
+    <row r="20" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="164"/>
+      <c r="B20" s="123" t="s">
         <v>537</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="123" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="224" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="175"/>
-      <c r="B21" s="134" t="s">
+      <c r="F20" s="121"/>
+      <c r="G20" s="221"/>
+    </row>
+    <row r="21" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="164"/>
+      <c r="B21" s="123" t="s">
         <v>538</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="123" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="224" t="s">
         <v>209</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="74"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="221"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3QjUp/6HvUoHRhl9Z5lPiVnb+JWMdVr8HoRg6q80KuJhHFQLlNE2+f05IWWDawtPh1as3S1s127W1QT/8T6Hhw==" saltValue="PG1neoupcDGzPhrv+qSK8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -10364,642 +10394,651 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="235" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+    </row>
+    <row r="4" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A4" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="123" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="123" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="224" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="168" t="s">
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="123" t="s">
         <v>434</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="224" t="s">
         <v>210</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="154.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
-      <c r="B6" s="112" t="s">
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="157"/>
+      <c r="B6" s="123" t="s">
         <v>436</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="123" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="224" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="82.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="168" t="s">
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="123" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="123" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="224" t="s">
         <v>211</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A8" s="168"/>
-      <c r="B8" s="112" t="s">
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="157"/>
+      <c r="B8" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="123" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="224" t="s">
         <v>212</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="112" t="s">
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="157"/>
+      <c r="B9" s="123" t="s">
         <v>439</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="123" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="224" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
-      <c r="B10" s="112" t="s">
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A10" s="157"/>
+      <c r="B10" s="123" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="123" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="224" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="168"/>
-      <c r="B11" s="112" t="s">
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A11" s="157"/>
+      <c r="B11" s="123" t="s">
         <v>441</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="224" t="s">
         <v>212</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
-      <c r="B12" s="112" t="s">
+      <c r="G11" s="221"/>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A12" s="157"/>
+      <c r="B12" s="123" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="228" t="s">
         <v>214</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.3">
-      <c r="A13" s="168"/>
-      <c r="B13" s="112" t="s">
+      <c r="G12" s="221"/>
+    </row>
+    <row r="13" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A13" s="157"/>
+      <c r="B13" s="123" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="123" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="224" t="s">
         <v>215</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A14" s="175" t="s">
+      <c r="G13" s="221"/>
+    </row>
+    <row r="14" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="123" t="s">
         <v>445</v>
       </c>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="153" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="112" t="s">
+      <c r="G14" s="221"/>
+    </row>
+    <row r="15" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A15" s="164"/>
+      <c r="B15" s="123" t="s">
         <v>446</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="114" t="s">
+      <c r="C15" s="153"/>
+      <c r="D15" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="82"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="112" t="s">
+      <c r="G15" s="221"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="164"/>
+      <c r="B16" s="123" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="85" t="s">
+      <c r="C16" s="153"/>
+      <c r="D16" s="109" t="s">
         <v>214</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="82"/>
-    </row>
-    <row r="17" spans="1:7" ht="136.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A17" s="98" t="s">
+      <c r="G16" s="221"/>
+    </row>
+    <row r="17" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A17" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="123" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="123" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="109" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A18" s="175" t="s">
+      <c r="G17" s="221"/>
+    </row>
+    <row r="18" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="123" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="224" t="s">
         <v>309</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="112" t="s">
+      <c r="G18" s="221"/>
+    </row>
+    <row r="19" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="164"/>
+      <c r="B19" s="123" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="123" t="s">
         <v>578</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="224" t="s">
         <v>309</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="134" t="s">
+      <c r="G19" s="221"/>
+    </row>
+    <row r="20" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="164"/>
+      <c r="B20" s="123" t="s">
         <v>543</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="123" t="s">
         <v>451</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="224" t="s">
         <v>309</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" ht="216.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="G20" s="221"/>
+    </row>
+    <row r="21" spans="1:7" ht="218.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="127" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="123" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="123" t="s">
         <v>363</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="109" t="s">
         <v>214</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="175" t="s">
+      <c r="G21" s="221"/>
+    </row>
+    <row r="22" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A22" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="123" t="s">
         <v>452</v>
       </c>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="108" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="82"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="175"/>
-      <c r="B23" s="112" t="s">
+      <c r="G22" s="221"/>
+    </row>
+    <row r="23" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A23" s="164"/>
+      <c r="B23" s="123" t="s">
         <v>453</v>
       </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="114" t="s">
+      <c r="C23" s="153"/>
+      <c r="D23" s="224" t="s">
         <v>216</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="82"/>
-    </row>
-    <row r="24" spans="1:7" ht="70.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="175"/>
-      <c r="B24" s="112" t="s">
+      <c r="G23" s="221"/>
+    </row>
+    <row r="24" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A24" s="164"/>
+      <c r="B24" s="123" t="s">
         <v>454</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="114" t="s">
+      <c r="C24" s="153"/>
+      <c r="D24" s="224" t="s">
         <v>216</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="82"/>
-    </row>
-    <row r="25" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="175"/>
-      <c r="B25" s="112" t="s">
+      <c r="G24" s="221"/>
+    </row>
+    <row r="25" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="164"/>
+      <c r="B25" s="123" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="114" t="s">
+      <c r="C25" s="153"/>
+      <c r="D25" s="224" t="s">
         <v>216</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="82"/>
-    </row>
-    <row r="26" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="175"/>
-      <c r="B26" s="112" t="s">
+      <c r="G25" s="221"/>
+    </row>
+    <row r="26" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="164"/>
+      <c r="B26" s="123" t="s">
         <v>456</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="114" t="s">
+      <c r="C26" s="153"/>
+      <c r="D26" s="224" t="s">
         <v>216</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="82"/>
-    </row>
-    <row r="27" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="175" t="s">
+      <c r="G26" s="221"/>
+    </row>
+    <row r="27" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="164" t="s">
         <v>329</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="123" t="s">
         <v>457</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="123" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="82"/>
-    </row>
-    <row r="28" spans="1:7" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="175"/>
-      <c r="B28" s="112" t="s">
+      <c r="G27" s="221"/>
+    </row>
+    <row r="28" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A28" s="164"/>
+      <c r="B28" s="123" t="s">
         <v>469</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="123" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="82"/>
-    </row>
-    <row r="29" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="175"/>
-      <c r="B29" s="112" t="s">
+      <c r="G28" s="221"/>
+    </row>
+    <row r="29" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A29" s="164"/>
+      <c r="B29" s="123" t="s">
         <v>468</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="123" t="s">
         <v>331</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="82"/>
-    </row>
-    <row r="30" spans="1:7" ht="153.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="175" t="s">
+      <c r="G29" s="221"/>
+    </row>
+    <row r="30" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="123" t="s">
         <v>467</v>
       </c>
-      <c r="C30" s="163" t="s">
+      <c r="C30" s="153" t="s">
         <v>332</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="109" t="s">
         <v>214</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="82"/>
-    </row>
-    <row r="31" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="175"/>
-      <c r="B31" s="112" t="s">
+      <c r="G30" s="221"/>
+    </row>
+    <row r="31" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A31" s="164"/>
+      <c r="B31" s="123" t="s">
         <v>466</v>
       </c>
-      <c r="C31" s="163"/>
-      <c r="D31" s="114" t="s">
+      <c r="C31" s="153"/>
+      <c r="D31" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="82"/>
-    </row>
-    <row r="32" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="175"/>
-      <c r="B32" s="112" t="s">
+      <c r="G31" s="221"/>
+    </row>
+    <row r="32" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="164"/>
+      <c r="B32" s="123" t="s">
         <v>465</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="109" t="s">
         <v>214</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="82"/>
-    </row>
-    <row r="33" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="175"/>
-      <c r="B33" s="112" t="s">
+      <c r="G32" s="221"/>
+    </row>
+    <row r="33" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="164"/>
+      <c r="B33" s="123" t="s">
         <v>464</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="82"/>
-    </row>
-    <row r="34" spans="1:7" ht="95.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="175"/>
-      <c r="B34" s="112" t="s">
+      <c r="G33" s="221"/>
+    </row>
+    <row r="34" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A34" s="164"/>
+      <c r="B34" s="123" t="s">
         <v>461</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="82"/>
-    </row>
-    <row r="35" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="175"/>
-      <c r="B35" s="112" t="s">
+      <c r="G34" s="221"/>
+    </row>
+    <row r="35" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="164"/>
+      <c r="B35" s="123" t="s">
         <v>460</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="82"/>
-    </row>
-    <row r="36" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="168" t="s">
+      <c r="G35" s="221"/>
+    </row>
+    <row r="36" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A36" s="157" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="123" t="s">
         <v>463</v>
       </c>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="123" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="224" t="s">
         <v>309</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="82"/>
-    </row>
-    <row r="37" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="168"/>
-      <c r="B37" s="112" t="s">
+      <c r="G36" s="221"/>
+    </row>
+    <row r="37" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A37" s="157"/>
+      <c r="B37" s="123" t="s">
         <v>462</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="123" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="224" t="s">
         <v>309</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="82"/>
-    </row>
-    <row r="38" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A38" s="98" t="s">
+      <c r="G37" s="221"/>
+    </row>
+    <row r="38" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="126" t="s">
         <v>335</v>
       </c>
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="123" t="s">
         <v>544</v>
       </c>
-      <c r="C38" s="112" t="s">
+      <c r="C38" s="123" t="s">
         <v>336</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="224" t="s">
         <v>214</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="82"/>
-    </row>
-    <row r="39" spans="1:7" ht="114" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
+      <c r="G38" s="221"/>
+    </row>
+    <row r="39" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A39" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="123" t="s">
         <v>459</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="82"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="74"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="74"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="74"/>
+      <c r="G39" s="221"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="234"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="220"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="220"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="74"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="234"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="EHTHV+C+D3EiyvDFx/zq86HGVezDhXb0FlpGENscI2jwyXOEADf75JyCFw7eL0ZQ1bwsx49MWUGIMe9SJYdn9g==" saltValue="dpwVGFPH/GZ2Hx/6vEL+SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C30:C31"/>
@@ -11007,12 +11046,6 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11044,212 +11077,215 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="235" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="179" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-    </row>
-    <row r="4" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+    </row>
+    <row r="4" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="165" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="123" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="224" t="s">
         <v>217</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
-      <c r="B5" s="112" t="s">
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A5" s="165"/>
+      <c r="B5" s="123" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="115"/>
-    </row>
-    <row r="6" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="176"/>
-      <c r="B6" s="112" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="233"/>
+    </row>
+    <row r="6" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="165"/>
+      <c r="B6" s="123" t="s">
         <v>472</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="123" t="s">
         <v>579</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="224" t="s">
         <v>337</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="112" t="s">
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A7" s="165"/>
+      <c r="B7" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="224" t="s">
         <v>338</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="176"/>
-      <c r="B8" s="112" t="s">
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="165"/>
+      <c r="B8" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="123" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="224" t="s">
         <v>338</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="118.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
-      <c r="B9" s="112" t="s">
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A9" s="165"/>
+      <c r="B9" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="123" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="224" t="s">
         <v>203</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A10" s="128" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="123" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="123" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="109" t="s">
         <v>337</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="153" x14ac:dyDescent="0.3">
-      <c r="A11" s="177" t="s">
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" ht="161" x14ac:dyDescent="0.35">
+      <c r="A11" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="123" t="s">
         <v>546</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="224" t="s">
         <v>218</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="177"/>
-      <c r="B12" s="134" t="s">
+      <c r="G11" s="221"/>
+    </row>
+    <row r="12" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="166"/>
+      <c r="B12" s="123" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="224" t="s">
         <v>219</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="74"/>
+      <c r="G12" s="221"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1TNS3KGAlTnASG7fCAHQ/qStECpp1+9hCkuY4V3qh2Z8GrHIKfaZLjg81X0aMtH3szyk7WhDNn2YRiwjWl6Y6g==" saltValue="COjnhdBI6tnD2Q6Z00nlwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A11:A12"/>
@@ -11290,329 +11326,329 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="93" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-    </row>
-    <row r="4" spans="1:7" ht="94.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+    </row>
+    <row r="4" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A4" s="171" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="153" t="s">
         <v>480</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="81" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
-      <c r="B5" s="112" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+    </row>
+    <row r="5" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="171"/>
+      <c r="B5" s="102" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="93" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
-      <c r="B6" s="112" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A6" s="171"/>
+      <c r="B6" s="102" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="114" t="s">
+      <c r="C6" s="153"/>
+      <c r="D6" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="1:7" ht="161" x14ac:dyDescent="0.35">
+      <c r="A7" s="171" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="102" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="112" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="171"/>
+      <c r="B8" s="102" t="s">
         <v>547</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
-      <c r="B9" s="134" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="171"/>
+      <c r="B9" s="122" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="171" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="102" t="s">
         <v>549</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="112" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+    </row>
+    <row r="11" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="171"/>
+      <c r="B11" s="102" t="s">
         <v>511</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="177" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
-      <c r="B12" s="134" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+    </row>
+    <row r="12" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="171"/>
+      <c r="B12" s="122" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="183" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+    </row>
+    <row r="13" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="172" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="122" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" ht="118.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="183"/>
-      <c r="B14" s="112" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+    </row>
+    <row r="14" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A14" s="172"/>
+      <c r="B14" s="102" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
-      <c r="B15" s="134" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="172"/>
+      <c r="B15" s="122" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-    </row>
-    <row r="16" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A16" s="183"/>
-      <c r="B16" s="134" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+    </row>
+    <row r="16" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="172"/>
+      <c r="B16" s="122" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-    </row>
-    <row r="17" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="182" t="s">
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+    </row>
+    <row r="17" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="171" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:7" ht="171" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="112" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+    </row>
+    <row r="18" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="171"/>
+      <c r="B18" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" ht="82.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
-      <c r="B19" s="112" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="171"/>
+      <c r="B19" s="102" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
-      <c r="B20" s="112" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A20" s="171"/>
+      <c r="B20" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="71"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11659,145 +11695,145 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="93" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="170" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-    </row>
-    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+    </row>
+    <row r="4" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A4" s="171" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="102" t="s">
         <v>486</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="102" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="91" t="s">
         <v>220</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
-      <c r="B5" s="112" t="s">
+      <c r="G4" s="80"/>
+    </row>
+    <row r="5" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A5" s="171"/>
+      <c r="B5" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="91" t="s">
         <v>220</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
-      <c r="B6" s="112" t="s">
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="1:7" ht="161" x14ac:dyDescent="0.35">
+      <c r="A6" s="171"/>
+      <c r="B6" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="94" t="s">
         <v>220</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
-      <c r="B7" s="112" t="s">
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="171"/>
+      <c r="B7" s="102" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="94" t="s">
         <v>220</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="117" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="112" t="s">
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A8" s="171"/>
+      <c r="B8" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="91" t="s">
         <v>220</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="68"/>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11839,290 +11875,290 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="93" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="170" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+    </row>
+    <row r="4" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="171" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="122" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
-      <c r="B5" s="125" t="s">
+      <c r="G4" s="80"/>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="171"/>
+      <c r="B5" s="114" t="s">
         <v>506</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="115"/>
-    </row>
-    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
-      <c r="B6" s="134" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="105"/>
+    </row>
+    <row r="6" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A6" s="171"/>
+      <c r="B6" s="122" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="330.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
-      <c r="B7" s="134" t="s">
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="171"/>
+      <c r="B7" s="122" t="s">
         <v>557</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="102" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="134" t="s">
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="171"/>
+      <c r="B8" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="102" t="s">
         <v>368</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
-      <c r="B9" s="134" t="s">
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" ht="184" x14ac:dyDescent="0.35">
+      <c r="A9" s="171"/>
+      <c r="B9" s="122" t="s">
         <v>559</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="102" t="s">
         <v>490</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
-      <c r="B10" s="88" t="s">
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="171"/>
+      <c r="B10" s="83" t="s">
         <v>491</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="115"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="89" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="105"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="171"/>
+      <c r="B11" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="174" t="s">
         <v>560</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="175" t="s">
         <v>302</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
-      <c r="B12" s="90" t="s">
+      <c r="G11" s="80"/>
+    </row>
+    <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A12" s="171"/>
+      <c r="B12" s="85" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
-      <c r="B13" s="90" t="s">
+      <c r="G12" s="80"/>
+    </row>
+    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A13" s="171"/>
+      <c r="B13" s="85" t="s">
         <v>493</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
-      <c r="B14" s="90" t="s">
+      <c r="G13" s="80"/>
+    </row>
+    <row r="14" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="171"/>
+      <c r="B14" s="85" t="s">
         <v>494</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="13"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="184" t="s">
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="173" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="86" t="s">
         <v>495</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="115"/>
-    </row>
-    <row r="16" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
-      <c r="B16" s="91" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="105"/>
+    </row>
+    <row r="16" spans="1:7" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="173"/>
+      <c r="B16" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="174" t="s">
         <v>561</v>
       </c>
-      <c r="D16" s="186" t="s">
+      <c r="D16" s="175" t="s">
         <v>302</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="82"/>
-    </row>
-    <row r="17" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
-      <c r="B17" s="91" t="s">
+      <c r="G16" s="80"/>
+    </row>
+    <row r="17" spans="1:7" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="173"/>
+      <c r="B17" s="86" t="s">
         <v>496</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="186"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="13"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
-      <c r="B18" s="91" t="s">
+      <c r="G17" s="80"/>
+    </row>
+    <row r="18" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="173"/>
+      <c r="B18" s="86" t="s">
         <v>497</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="186"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="184"/>
-      <c r="B19" s="91" t="s">
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="173"/>
+      <c r="B19" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:7" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A20" s="111" t="s">
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:7" ht="299" x14ac:dyDescent="0.35">
+      <c r="A20" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="86" t="s">
         <v>563</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="85" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="94" t="s">
         <v>302</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="82"/>
+      <c r="G20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12169,85 +12205,85 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48.54296875" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="176" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="96" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="71"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="74"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="70"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="73"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12279,42 +12315,42 @@
       <selection activeCell="A2" sqref="A2:E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="225" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="222" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-    </row>
-    <row r="4" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="201" t="s">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+    </row>
+    <row r="4" spans="1:5" ht="207" x14ac:dyDescent="0.35">
+      <c r="A4" s="184" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="202"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="207.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="185"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -12324,19 +12360,19 @@
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="201" t="s">
+    <row r="6" spans="1:5" ht="218.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="184" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="202"/>
+    <row r="7" spans="1:5" ht="207.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="185"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -12346,21 +12382,21 @@
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+    <row r="8" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A8" s="184" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="185"/>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -12370,8 +12406,8 @@
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="203"/>
+    <row r="10" spans="1:5" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="186"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
@@ -12381,28 +12417,28 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="222" t="s">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="223"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="224"/>
-    </row>
-    <row r="12" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="201" t="s">
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+    </row>
+    <row r="12" spans="1:5" ht="184" x14ac:dyDescent="0.35">
+      <c r="A12" s="184" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="137.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="202"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="185"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
@@ -12412,19 +12448,19 @@
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A14" s="205" t="s">
+    <row r="14" spans="1:5" ht="138" x14ac:dyDescent="0.35">
+      <c r="A14" s="187" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="206"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="104" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="188"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -12434,11 +12470,11 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="205" t="s">
+    <row r="16" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A16" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -12447,8 +12483,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
+    <row r="17" spans="1:5" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="189"/>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
@@ -12458,32 +12494,32 @@
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="206"/>
+    <row r="18" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="188"/>
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A19" s="201" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="69" x14ac:dyDescent="0.35">
+      <c r="A19" s="184" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="202"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="185"/>
       <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
@@ -12493,119 +12529,119 @@
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="203"/>
+    <row r="21" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="186"/>
       <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="218" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="221"/>
-    </row>
-    <row r="23" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="202" t="s">
+      <c r="B22" s="191"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="193"/>
+    </row>
+    <row r="23" spans="1:5" ht="132.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="202"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A24" s="185"/>
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="202"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="185"/>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="203"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" ht="173" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="186"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="150" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" ht="126" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="218" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="221"/>
-    </row>
-    <row r="30" spans="1:5" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="201" t="s">
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="193"/>
+    </row>
+    <row r="30" spans="1:5" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" ht="91.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="202"/>
-      <c r="B31" s="24" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" ht="92" x14ac:dyDescent="0.35">
+      <c r="A31" s="185"/>
+      <c r="B31" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="203"/>
+    <row r="32" spans="1:5" ht="196" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="186"/>
       <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
@@ -12615,266 +12651,266 @@
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:5" ht="127" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="37"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="218" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="221"/>
-    </row>
-    <row r="36" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="193"/>
+    </row>
+    <row r="36" spans="1:5" ht="120" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" ht="126" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" ht="127" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="39"/>
       <c r="B37" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" ht="230" x14ac:dyDescent="0.35">
+      <c r="A38" s="39"/>
       <c r="B38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="364.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+    <row r="39" spans="1:5" ht="379.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="39"/>
       <c r="B39" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+    <row r="40" spans="1:5" ht="115" x14ac:dyDescent="0.35">
+      <c r="A40" s="39"/>
       <c r="B40" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="28"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+    <row r="41" spans="1:5" ht="115" x14ac:dyDescent="0.35">
+      <c r="A41" s="39"/>
       <c r="B41" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+    <row r="42" spans="1:5" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="39"/>
       <c r="B42" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="28"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="43"/>
       <c r="B43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="126" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="45" t="s">
+    <row r="44" spans="1:5" ht="127" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="138" x14ac:dyDescent="0.35">
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" ht="115" x14ac:dyDescent="0.35">
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="28"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+    <row r="47" spans="1:5" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="44"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="28"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="46"/>
+    <row r="48" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="45"/>
       <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="205" t="s">
+    <row r="49" spans="1:5" ht="150" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="187" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5" ht="330.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="204"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="189"/>
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="204"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A51" s="189"/>
       <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="28"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="204"/>
+    <row r="52" spans="1:5" ht="195.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="189"/>
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="28"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="206"/>
+    <row r="53" spans="1:5" ht="184.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="188"/>
       <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="218" t="s">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="219"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="219"/>
-      <c r="E54" s="221"/>
-    </row>
-    <row r="55" spans="1:5" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="30" t="s">
+      <c r="B54" s="191"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="193"/>
+    </row>
+    <row r="55" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="37"/>
-    </row>
-    <row r="56" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="205" t="s">
+      <c r="D55" s="31"/>
+      <c r="E55" s="36"/>
+    </row>
+    <row r="56" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -12883,8 +12919,8 @@
       <c r="D56" s="5"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" ht="399.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="206"/>
+    <row r="57" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="188"/>
       <c r="B57" s="4" t="s">
         <v>103</v>
       </c>
@@ -12894,30 +12930,30 @@
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="201" t="s">
+    <row r="58" spans="1:5" ht="207" x14ac:dyDescent="0.35">
+      <c r="A58" s="184" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="1:5" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="202"/>
-      <c r="B59" s="48" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="185"/>
+      <c r="B59" s="47" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:5" ht="228" x14ac:dyDescent="0.3">
-      <c r="A60" s="202"/>
+    <row r="60" spans="1:5" ht="230" x14ac:dyDescent="0.35">
+      <c r="A60" s="185"/>
       <c r="B60" s="2" t="s">
         <v>107</v>
       </c>
@@ -12925,44 +12961,44 @@
       <c r="D60" s="5"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="202"/>
-      <c r="B61" s="24" t="s">
+    <row r="61" spans="1:5" ht="207" x14ac:dyDescent="0.35">
+      <c r="A61" s="185"/>
+      <c r="B61" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="202"/>
-      <c r="B62" s="24" t="s">
+    <row r="62" spans="1:5" ht="46" x14ac:dyDescent="0.35">
+      <c r="A62" s="185"/>
+      <c r="B62" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A63" s="202"/>
-      <c r="B63" s="24" t="s">
+    <row r="63" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="185"/>
+      <c r="B63" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" ht="228.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="203"/>
+    <row r="64" spans="1:5" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="186"/>
       <c r="B64" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="204" t="s">
+    <row r="65" spans="1:5" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="189" t="s">
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -12974,8 +13010,8 @@
       <c r="D65" s="5"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A66" s="204"/>
+    <row r="66" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="189"/>
       <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
@@ -12985,28 +13021,28 @@
       <c r="D66" s="6"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="204"/>
+    <row r="67" spans="1:5" ht="104" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="189"/>
       <c r="B67" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="297" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:5" ht="311" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="33"/>
-    </row>
-    <row r="69" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="205" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" ht="138" x14ac:dyDescent="0.35">
+      <c r="A69" s="187" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -13018,8 +13054,8 @@
       <c r="D69" s="5"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A70" s="204"/>
+    <row r="70" spans="1:5" ht="115" x14ac:dyDescent="0.35">
+      <c r="A70" s="189"/>
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
@@ -13029,8 +13065,8 @@
       <c r="D70" s="6"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="171.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="206"/>
+    <row r="71" spans="1:5" ht="173" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="188"/>
       <c r="B71" s="4" t="s">
         <v>121</v>
       </c>
@@ -13040,120 +13076,120 @@
       <c r="D71" s="6"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="194.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:5" ht="196" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="205" t="s">
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="187" t="s">
         <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="47"/>
-    </row>
-    <row r="74" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A74" s="204"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="1:5" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="189"/>
       <c r="B74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="21"/>
-    </row>
-    <row r="75" spans="1:5" ht="57" x14ac:dyDescent="0.3">
-      <c r="A75" s="204"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="189"/>
       <c r="B75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="54"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="204"/>
+    <row r="76" spans="1:5" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="189"/>
       <c r="B76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="54"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="206"/>
+    <row r="77" spans="1:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="188"/>
       <c r="B77" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="48"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A78" s="201" t="s">
+    <row r="78" spans="1:5" ht="115" x14ac:dyDescent="0.35">
+      <c r="A78" s="184" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="202"/>
-      <c r="B79" s="55" t="s">
+      <c r="D78" s="17"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="1:5" ht="46" x14ac:dyDescent="0.35">
+      <c r="A79" s="185"/>
+      <c r="B79" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
-    </row>
-    <row r="80" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="203"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="56"/>
+    </row>
+    <row r="80" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="186"/>
       <c r="B80" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="60"/>
-      <c r="E80" s="25"/>
-    </row>
-    <row r="81" spans="1:5" ht="171" x14ac:dyDescent="0.3">
-      <c r="A81" s="205" t="s">
+      <c r="D80" s="59"/>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="187" t="s">
         <v>134</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="1:5" ht="114" x14ac:dyDescent="0.3">
-      <c r="A82" s="204"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="18"/>
+    </row>
+    <row r="82" spans="1:5" ht="115" x14ac:dyDescent="0.35">
+      <c r="A82" s="189"/>
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -13163,17 +13199,17 @@
       <c r="D82" s="6"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A83" s="204"/>
+    <row r="83" spans="1:5" ht="69" x14ac:dyDescent="0.35">
+      <c r="A83" s="189"/>
       <c r="B83" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="204"/>
+    <row r="84" spans="1:5" ht="46" x14ac:dyDescent="0.35">
+      <c r="A84" s="189"/>
       <c r="B84" s="2" t="s">
         <v>138</v>
       </c>
@@ -13183,8 +13219,8 @@
       <c r="D84" s="6"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A85" s="204"/>
+    <row r="85" spans="1:5" ht="69" x14ac:dyDescent="0.35">
+      <c r="A85" s="189"/>
       <c r="B85" s="2" t="s">
         <v>139</v>
       </c>
@@ -13194,8 +13230,8 @@
       <c r="D85" s="6"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="206"/>
+    <row r="86" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="188"/>
       <c r="B86" s="4" t="s">
         <v>140</v>
       </c>
@@ -13205,8 +13241,8 @@
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="262.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="205" t="s">
+    <row r="87" spans="1:5" ht="264.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="187" t="s">
         <v>141</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -13218,189 +13254,189 @@
       <c r="D87" s="5"/>
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="1:5" ht="240" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="206"/>
+    <row r="88" spans="1:5" ht="242" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="188"/>
       <c r="B88" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="49"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="194.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="40" t="s">
+    <row r="89" spans="1:5" ht="207.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="59"/>
-    </row>
-    <row r="90" spans="1:5" ht="137.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="34" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="58"/>
+    </row>
+    <row r="90" spans="1:5" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="35"/>
-      <c r="E90" s="37"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="207" t="s">
+      <c r="D90" s="34"/>
+      <c r="E90" s="36"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="197" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="208"/>
-      <c r="C91" s="208"/>
-      <c r="D91" s="208"/>
-      <c r="E91" s="209"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="210" t="s">
+      <c r="B91" s="198"/>
+      <c r="C91" s="198"/>
+      <c r="D91" s="198"/>
+      <c r="E91" s="199"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="211"/>
-      <c r="C92" s="211"/>
-      <c r="D92" s="211"/>
-      <c r="E92" s="212"/>
-    </row>
-    <row r="93" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="213" t="s">
+      <c r="B92" s="201"/>
+      <c r="C92" s="201"/>
+      <c r="D92" s="201"/>
+      <c r="E92" s="202"/>
+    </row>
+    <row r="93" spans="1:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="203" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="25"/>
-    </row>
-    <row r="94" spans="1:5" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="214"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="58" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="204"/>
       <c r="B94" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-    </row>
-    <row r="95" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="214"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:5" ht="46" x14ac:dyDescent="0.35">
+      <c r="A95" s="204"/>
       <c r="B95" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="21"/>
-    </row>
-    <row r="96" spans="1:5" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="214"/>
-      <c r="B96" s="48" t="s">
+      <c r="D95" s="52"/>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="1:5" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="204"/>
+      <c r="B96" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="25"/>
-    </row>
-    <row r="97" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A97" s="214"/>
-      <c r="B97" s="48" t="s">
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="204"/>
+      <c r="B97" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="25"/>
-    </row>
-    <row r="98" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="215"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="1:5" ht="184.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="205"/>
       <c r="B98" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="49"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="62" t="s">
+    <row r="99" spans="1:5" ht="104" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="20"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="19"/>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" spans="1:5" ht="307.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="216" t="s">
+    <row r="100" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="206" t="s">
         <v>159</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="21"/>
-    </row>
-    <row r="101" spans="1:5" ht="319.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="217"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" ht="334" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="207"/>
       <c r="B101" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="25"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="198" t="s">
+      <c r="D101" s="59"/>
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="194" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="199"/>
-      <c r="C102" s="199"/>
-      <c r="D102" s="199"/>
-      <c r="E102" s="200"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="189" t="s">
+      <c r="B102" s="195"/>
+      <c r="C102" s="195"/>
+      <c r="D102" s="195"/>
+      <c r="E102" s="196"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="208" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="190"/>
-      <c r="C103" s="190"/>
-      <c r="D103" s="190"/>
-      <c r="E103" s="191"/>
-    </row>
-    <row r="104" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="194" t="s">
+      <c r="B103" s="209"/>
+      <c r="C103" s="209"/>
+      <c r="D103" s="209"/>
+      <c r="E103" s="210"/>
+    </row>
+    <row r="104" spans="1:5" ht="184" x14ac:dyDescent="0.35">
+      <c r="A104" s="213" t="s">
         <v>164</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="21"/>
-    </row>
-    <row r="105" spans="1:5" ht="91.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="195"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5" ht="92" x14ac:dyDescent="0.35">
+      <c r="A105" s="214"/>
       <c r="B105" s="2" t="s">
         <v>166</v>
       </c>
@@ -13410,8 +13446,8 @@
       <c r="D105" s="6"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="196"/>
+    <row r="106" spans="1:5" ht="219" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="215"/>
       <c r="B106" s="4" t="s">
         <v>167</v>
       </c>
@@ -13421,11 +13457,11 @@
       <c r="D106" s="7"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="194" t="s">
+    <row r="107" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A107" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>169</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -13434,43 +13470,43 @@
       <c r="D107" s="5"/>
       <c r="E107" s="10"/>
     </row>
-    <row r="108" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="195"/>
+    <row r="108" spans="1:5" ht="195.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="214"/>
       <c r="B108" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="63" t="s">
+      <c r="C108" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="63"/>
-      <c r="E108" s="25"/>
-    </row>
-    <row r="109" spans="1:5" ht="171.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="196"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="1:5" ht="173" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="215"/>
       <c r="B109" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="64"/>
+      <c r="D109" s="63"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="192" t="s">
+    <row r="110" spans="1:5" ht="218.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="211" t="s">
         <v>172</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="21"/>
-    </row>
-    <row r="111" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="193"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="20"/>
+    </row>
+    <row r="111" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A111" s="212"/>
       <c r="B111" s="2" t="s">
         <v>174</v>
       </c>
@@ -13480,30 +13516,30 @@
       <c r="D111" s="6"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" ht="365.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="197"/>
+    <row r="112" spans="1:5" ht="380" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="216"/>
       <c r="B112" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="25"/>
-    </row>
-    <row r="113" spans="1:5" ht="285" x14ac:dyDescent="0.3">
-      <c r="A113" s="192" t="s">
+      <c r="D112" s="59"/>
+      <c r="E112" s="24"/>
+    </row>
+    <row r="113" spans="1:5" ht="299" x14ac:dyDescent="0.35">
+      <c r="A113" s="211" t="s">
         <v>176</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="21"/>
-    </row>
-    <row r="114" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="193"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="20"/>
+    </row>
+    <row r="114" spans="1:5" ht="195.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="212"/>
       <c r="B114" s="2" t="s">
         <v>178</v>
       </c>
@@ -13511,8 +13547,8 @@
       <c r="D114" s="6"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="193"/>
+    <row r="115" spans="1:5" ht="184" x14ac:dyDescent="0.35">
+      <c r="A115" s="212"/>
       <c r="B115" s="2" t="s">
         <v>179</v>
       </c>
@@ -13522,8 +13558,8 @@
       <c r="D115" s="6"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" ht="160.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="193"/>
+    <row r="116" spans="1:5" ht="161.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="212"/>
       <c r="B116" s="4" t="s">
         <v>180</v>
       </c>
@@ -13533,21 +13569,21 @@
       <c r="D116" s="6"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A117" s="192" t="s">
+    <row r="117" spans="1:5" ht="276" x14ac:dyDescent="0.35">
+      <c r="A117" s="211" t="s">
         <v>181</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="21"/>
-    </row>
-    <row r="118" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="193"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="20"/>
+    </row>
+    <row r="118" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A118" s="212"/>
       <c r="B118" s="2" t="s">
         <v>183</v>
       </c>
@@ -13557,17 +13593,17 @@
       <c r="D118" s="6"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="193"/>
-      <c r="B119" s="48" t="s">
+    <row r="119" spans="1:5" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="212"/>
+      <c r="B119" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="25"/>
-    </row>
-    <row r="120" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="197"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="24"/>
+    </row>
+    <row r="120" spans="1:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="216"/>
       <c r="B120" s="4" t="s">
         <v>185</v>
       </c>
@@ -13577,30 +13613,30 @@
       <c r="D120" s="7"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="189" t="s">
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="B121" s="190"/>
-      <c r="C121" s="190"/>
-      <c r="D121" s="190"/>
-      <c r="E121" s="191"/>
-    </row>
-    <row r="122" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="192" t="s">
+      <c r="B121" s="209"/>
+      <c r="C121" s="209"/>
+      <c r="D121" s="209"/>
+      <c r="E121" s="210"/>
+    </row>
+    <row r="122" spans="1:5" ht="207" x14ac:dyDescent="0.35">
+      <c r="A122" s="211" t="s">
         <v>187</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="21"/>
-    </row>
-    <row r="123" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="193"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="20"/>
+    </row>
+    <row r="123" spans="1:5" ht="161" x14ac:dyDescent="0.35">
+      <c r="A123" s="212"/>
       <c r="B123" s="2" t="s">
         <v>189</v>
       </c>
@@ -13610,8 +13646,8 @@
       <c r="D123" s="6"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="193"/>
+    <row r="124" spans="1:5" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="212"/>
       <c r="B124" s="2" t="s">
         <v>190</v>
       </c>
@@ -13621,8 +13657,8 @@
       <c r="D124" s="6"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="193"/>
+    <row r="125" spans="1:5" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="212"/>
       <c r="B125" s="2" t="s">
         <v>191</v>
       </c>
@@ -13632,25 +13668,39 @@
       <c r="D125" s="6"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="240" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="193"/>
+    <row r="126" spans="1:5" ht="253.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="212"/>
       <c r="B126" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A100:A101"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -13663,26 +13713,12 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13709,133 +13745,136 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="6" width="30.5546875" customWidth="1"/>
-    <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="217" customWidth="1"/>
+    <col min="5" max="6" width="30.54296875" style="217" customWidth="1"/>
+    <col min="7" max="28" width="8.7265625" style="217"/>
+    <col min="29" max="29" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:6" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="145" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
-    </row>
-    <row r="4" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="154" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="222"/>
+    </row>
+    <row r="4" spans="1:6" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="145" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154" t="s">
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="222"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="145" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="222"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="145" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132"/>
-    </row>
-    <row r="7" spans="1:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154" t="s">
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="222"/>
+    </row>
+    <row r="7" spans="1:6" ht="77.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="145" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="132"/>
-    </row>
-    <row r="8" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="154" t="s">
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="222"/>
+    </row>
+    <row r="8" spans="1:6" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="145" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-    </row>
-    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="222"/>
+    </row>
+    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="145" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-    </row>
-    <row r="10" spans="1:6" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="222"/>
+    </row>
+    <row r="10" spans="1:6" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="145" t="s">
         <v>502</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="74"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="222"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="aJu8LhWFnwW8Ltuh2a4leX73ntUrIo3B7y6y3vg4jiLmENCYt+bkmBi/3S7Xgql3btsSMSN2NAvex3mMVFE57g==" saltValue="lktB6xl7jQtuJ1AGntUAwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -13859,15 +13898,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>68580</xdr:colOff>
+                <xdr:colOff>69850</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>739140</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>853440</xdr:rowOff>
+                <xdr:rowOff>850900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13884,13 +13923,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>53340</xdr:colOff>
+                <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>472440</xdr:rowOff>
+                <xdr:rowOff>469900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>739140</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>990600</xdr:rowOff>
               </to>
@@ -13909,15 +13948,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>53340</xdr:colOff>
+                <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>662940</xdr:rowOff>
+                <xdr:rowOff>660400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>739140</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>1173480</xdr:rowOff>
+                <xdr:rowOff>1174750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13934,15 +13973,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>487680</xdr:rowOff>
+                <xdr:rowOff>488950</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>746760</xdr:colOff>
+                <xdr:colOff>749300</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>1005840</xdr:rowOff>
+                <xdr:rowOff>1003300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13976,19 +14015,19 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -14006,195 +14045,198 @@
   </sheetPr>
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:30" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159" t="s">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="160" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-    </row>
-    <row r="4" spans="1:30" ht="70.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="161" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+    </row>
+    <row r="4" spans="1:30" ht="69" x14ac:dyDescent="0.35">
+      <c r="A4" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="123" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="153" t="s">
         <v>513</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="218" t="s">
         <v>308</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="82"/>
-      <c r="AD4" t="s">
+      <c r="G4" s="221"/>
+      <c r="AD4" s="217" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="161"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:30" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="152"/>
+      <c r="B5" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="162"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="82"/>
-      <c r="AD5" t="s">
+      <c r="F5" s="78"/>
+      <c r="G5" s="221"/>
+      <c r="AD5" s="217" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161"/>
-      <c r="B6" s="134" t="s">
+    <row r="6" spans="1:30" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="152"/>
+      <c r="B6" s="123" t="s">
         <v>515</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="162"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="218"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="82"/>
-      <c r="AD6" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="221"/>
+      <c r="AD6" s="217" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+    <row r="7" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="152" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="123" t="s">
         <v>380</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="153" t="s">
         <v>514</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="218" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:30" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="17" t="s">
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:30" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="152"/>
+      <c r="B8" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="162"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="218"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:30" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
-      <c r="B9" s="17" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:30" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="152"/>
+      <c r="B9" s="123" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="162"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="123" t="s">
         <v>383</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="123" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="74"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="74"/>
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="220"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="220"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="JXbfphqGhlC4+NhqjMoPo0PZ5fVFLHrn7cQZTvC6Ocr842fjdiA9jxkorCtHUaVlLyCap/Yad8fpsQx9iB7nCw==" saltValue="6fASYEiS/DnwfQqFGjoOyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -14229,229 +14271,232 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-    </row>
-    <row r="4" spans="1:7" ht="136.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+    </row>
+    <row r="4" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+      <c r="A4" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="123" t="s">
         <v>516</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="134" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="154"/>
+      <c r="B5" s="123" t="s">
         <v>517</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
-      <c r="B6" s="134" t="s">
+      <c r="D5" s="223"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A6" s="154"/>
+      <c r="B6" s="123" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="134" t="s">
+      <c r="F6" s="225"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="154"/>
+      <c r="B7" s="123" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="123" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="134" t="s">
+      <c r="F7" s="225"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="154"/>
+      <c r="B8" s="123" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="164"/>
-      <c r="B9" s="134" t="s">
+      <c r="F8" s="225"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="154"/>
+      <c r="B9" s="123" t="s">
         <v>519</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="224" t="s">
         <v>308</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="118.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="F10" s="225"/>
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A11" s="154" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="123" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="164"/>
-      <c r="B12" s="134" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="221"/>
+    </row>
+    <row r="12" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="154"/>
+      <c r="B12" s="123" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="153" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="222.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
-      <c r="B13" s="134" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="221"/>
+    </row>
+    <row r="13" spans="1:7" ht="222.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="154"/>
+      <c r="B13" s="123" t="s">
         <v>521</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="84" t="s">
+      <c r="C13" s="153"/>
+      <c r="D13" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="74"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="74"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="221"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="220"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZuIwSRlmS2MD3RuPSdzROKG3b2Zqq8s8EKnJlWnOABveyndlj7DgvXhQeFi7xUXYIcoPZTKelHVot/2foSrv/g==" saltValue="huq8pyfpe2FK9utNXWIeEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A11:A13"/>
@@ -14484,170 +14529,173 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-    </row>
-    <row r="4" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+    </row>
+    <row r="4" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="123" t="s">
         <v>522</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="123" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="17" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A5" s="154"/>
+      <c r="B5" s="123" t="s">
         <v>391</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="164" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="17" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="184" x14ac:dyDescent="0.35">
+      <c r="A7" s="154"/>
+      <c r="B7" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="123" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="123" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="74"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="74"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="220"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="220"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bd1eSw+zhQl2mHzoz/R/Qm8ftKC1ixuhDhH42IJspsRa6tCMqWzTHqlbKJwDkSh0VfnQFP0OOWCphubUlkBowA==" saltValue="Z3AphEyWG5FCa0Fw3X4lkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
@@ -14678,186 +14726,189 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" style="217" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-    </row>
-    <row r="4" spans="1:7" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+    </row>
+    <row r="4" spans="1:7" ht="301.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="123" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="123" t="s">
         <v>569</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="17" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="154"/>
+      <c r="B5" s="123" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="123" t="s">
         <v>571</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="123" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="17" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="154"/>
+      <c r="B7" s="123" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="123" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="17" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="154"/>
+      <c r="B8" s="123" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="123" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="164" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="184" x14ac:dyDescent="0.35">
+      <c r="A9" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="123" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="123" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="164"/>
-      <c r="B10" s="17" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="154"/>
+      <c r="B10" s="123" t="s">
         <v>398</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="123" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="74"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mB9wUBuQy6FM9pIuM7+GIEhbvSqySxjADidX//ztr8/35soxIQZZBkSf8JbZIbsSfYmEu7rFPIT5rQvfsVF7XA==" saltValue="T0xZQYTmINNTmFqCYYfs8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A4:A5"/>
@@ -14889,139 +14940,142 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-    </row>
-    <row r="4" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+    </row>
+    <row r="4" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="123" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="123" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="134" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="154"/>
+      <c r="B5" s="123" t="s">
         <v>525</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="123" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="123" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="224" t="s">
         <v>316</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="134" t="s">
+      <c r="F6" s="121"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="154"/>
+      <c r="B7" s="123" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="123" t="s">
         <v>403</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="224" t="s">
         <v>316</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="74"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bbR5/7EyEp8hZb22j2EPy1QQ/0m+Oh5pA0tXtpKI2PAN9ysdafhl4sCvLaK/7QMC55t8BE2fWiym0jdloBdD5g==" saltValue="j/OyyQlng+Fu3EfOSq4hfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -15052,182 +15106,185 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+    </row>
+    <row r="4" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="123" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="123" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="224" t="s">
         <v>221</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
-      <c r="B5" s="17" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="184" x14ac:dyDescent="0.35">
+      <c r="A5" s="157"/>
+      <c r="B5" s="123" t="s">
         <v>529</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="123" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="224" t="s">
         <v>221</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="171" x14ac:dyDescent="0.3">
-      <c r="A6" s="168" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="123" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="123" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="224" t="s">
         <v>221</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="171" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
-      <c r="B7" s="17" t="s">
+      <c r="F6" s="125"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="157"/>
+      <c r="B7" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="123" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="224" t="s">
         <v>221</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="130.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A8" s="168" t="s">
+      <c r="F7" s="125"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="123" t="s">
         <v>531</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="224" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="154.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="134" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="157"/>
+      <c r="B9" s="123" t="s">
         <v>528</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="123"/>
+      <c r="D9" s="224" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
-      <c r="B10" s="17" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="157"/>
+      <c r="B10" s="123" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="84" t="s">
+      <c r="C10" s="123"/>
+      <c r="D10" s="224" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="74"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="eShi+e4Y9nlMWhG6SK4Ao15RDOuBRW8fs2Tlo6XGP+lEDrYfU0t0O/XISq4wpqBtnJb1Syu37twMbwPstWA0mg==" saltValue="vQfv/bNMrGRm+v9bYw6/YA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -15259,241 +15316,244 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
+    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
+    <col min="8" max="29" width="8.7265625" style="217"/>
+    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="217"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="113" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+    </row>
+    <row r="4" spans="1:7" ht="115" x14ac:dyDescent="0.35">
+      <c r="A4" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="123" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
-      <c r="B5" s="17" t="s">
+      <c r="F4" s="125"/>
+      <c r="G4" s="221"/>
+    </row>
+    <row r="5" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="157"/>
+      <c r="B5" s="123" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="123" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="221"/>
+    </row>
+    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="123" t="s">
         <v>533</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
-      <c r="B7" s="17" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.35">
+      <c r="A7" s="157"/>
+      <c r="B7" s="123" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="123" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="224" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="168" t="s">
+      <c r="F7" s="125"/>
+      <c r="G7" s="221"/>
+    </row>
+    <row r="8" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="123" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="123" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="228" t="s">
         <v>305</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="17" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="221"/>
+    </row>
+    <row r="9" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="157"/>
+      <c r="B9" s="123" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="123" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="228" t="s">
         <v>305</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
-      <c r="B10" s="17" t="s">
+      <c r="F9" s="125"/>
+      <c r="G9" s="221"/>
+    </row>
+    <row r="10" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="157"/>
+      <c r="B10" s="123" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="228" t="s">
         <v>305</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="F10" s="125"/>
+      <c r="G10" s="221"/>
+    </row>
+    <row r="11" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="123" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="123" t="s">
         <v>415</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="228" t="s">
         <v>305</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
-      <c r="B12" s="17" t="s">
+      <c r="F11" s="121"/>
+      <c r="G11" s="221"/>
+    </row>
+    <row r="12" spans="1:7" ht="92" x14ac:dyDescent="0.35">
+      <c r="A12" s="157"/>
+      <c r="B12" s="123" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="123" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="228" t="s">
         <v>305</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="168"/>
-      <c r="B13" s="17" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="221"/>
+    </row>
+    <row r="13" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="157"/>
+      <c r="B13" s="123" t="s">
         <v>418</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="123" t="s">
         <v>419</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="228" t="s">
         <v>305</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="74"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="74"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="221"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="220"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="220"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="vv1dpOxXUyLsyZFTpbfigc6vOBE2z8PyM6XEFf6gqnJ1rN5YDcUzo49nFkF7Ah17oI+gTX3bBGdeHivpeRNNMg==" saltValue="biNZmQd16zj/lH7HMl0E2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -15520,9 +15580,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15640,25 +15703,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A41FA8-5546-40F9-B912-25CC9CFEE0DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12BD2AC-4855-43D9-9007-622134AA9429}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15680,9 +15733,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12BD2AC-4855-43D9-9007-622134AA9429}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A41FA8-5546-40F9-B912-25CC9CFEE0DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/businesses/SEB/TradeFIRST Self Assessment Checklist 1Apr2021.xlsx
+++ b/documents/businesses/SEB/TradeFIRST Self Assessment Checklist 1Apr2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cusjkk01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuswqa01\Desktop\TF checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83943FC3-163D-4E13-8167-4F0F2FB42638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A84BCBA-B3D1-4D31-9989-C2726224E85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="602" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="20" r:id="rId1"/>
@@ -8117,7 +8117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8157,13 +8157,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8362,24 +8355,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8394,9 +8371,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8419,9 +8393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -8429,19 +8400,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8451,11 +8412,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -8465,10 +8421,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8486,13 +8438,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8502,133 +8447,222 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8653,15 +8687,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8679,155 +8809,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8867,15 +8848,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>739140</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>850900</xdr:rowOff>
+          <xdr:rowOff>853440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8922,13 +8903,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>53340</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>469900</xdr:rowOff>
+          <xdr:rowOff>472440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>739140</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>990600</xdr:rowOff>
         </xdr:to>
@@ -8977,15 +8958,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>53340</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>660400</xdr:rowOff>
+          <xdr:rowOff>662940</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>739140</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>1174750</xdr:rowOff>
+          <xdr:rowOff>1173480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9032,15 +9013,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>488950</xdr:rowOff>
+          <xdr:rowOff>487680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>749300</xdr:colOff>
+          <xdr:colOff>746760</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>1003300</xdr:rowOff>
+          <xdr:rowOff>1005840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9454,162 +9435,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:31" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="136" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="146" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="139" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="149" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="139" t="s">
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="149" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="139" t="s">
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="151"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-    </row>
-    <row r="9" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="142" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151"/>
+    </row>
+    <row r="9" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="152" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="144"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="118" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="119"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="118" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="119"/>
-    </row>
-    <row r="12" spans="1:31" ht="45.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="105"/>
+    </row>
+    <row r="12" spans="1:31" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="130" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="140" t="s">
         <v>504</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/t+iFlcr0nd+9dRYODFDbKQWkMFps/DfMes3jF/LQbU/YlW2YgNayKm00YejQWIpp/IrhUedw5Y/zk59JStWyw==" saltValue="YkbNtKW/surQaSzqDJeCBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -9649,170 +9630,170 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="229"/>
-    </row>
-    <row r="5" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="123" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.3">
+      <c r="A5" s="169"/>
+      <c r="B5" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A6" s="157"/>
-      <c r="B6" s="123" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="169"/>
+      <c r="B6" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A7" s="157"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="169"/>
+      <c r="B7" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="126" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="107" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="126" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="82.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="220"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N0Cv1sKJssz+eI+NM3TIk0oXpFFnKGGrcdheOII2VyH+CW4zpKfDzlBmqqwI+LoxCInRtoa8+cavIbtBWtOv6w==" saltValue="PrF0lsIhH1ZxEmRWIlWp4w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LcrF/tn9gZPEatobZi6jwddXSOw6fVaMNB0vYOFNXZTuDOCcbS4qe7/iWv+v/2uYay+P9AzQw2wSFSTY2zYw0w==" saltValue="kW3bdcArN2FD1T46XKi4uQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:G2"/>
@@ -9843,155 +9824,155 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="175" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="229"/>
-    </row>
-    <row r="5" spans="1:7" ht="184" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="123" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="169"/>
+      <c r="B5" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="D5" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="157"/>
-      <c r="B6" s="123" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="169"/>
+      <c r="B6" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="228" t="s">
+      <c r="D6" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="126" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="107" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A8" s="126" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="136.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="220"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KL0LOP4V9XAyqKRhJLG9X9GvIWhPfJACjCi0jiVzqaalZWe/vra6MAjvzi12ChywiVspZG1aBV44fdhqG7RY0w==" saltValue="cymgf22RTSvcHLJs+zNBKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2uzdTRS4x8Al+o5fHxm9xXyWViKV34IyMc+4PH3MXFswzu6wSW9muPXIKx2t0P04THgZZO3llB1YMzq3DAZh/Q==" saltValue="pI6rzxqtX7RoAinwZv0vrA==" spinCount="100000" sheet="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D4"/>
@@ -10022,340 +10003,340 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="164" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="175" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="229"/>
-    </row>
-    <row r="5" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="164"/>
-      <c r="B5" s="123" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="176"/>
+      <c r="B5" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="229"/>
-    </row>
-    <row r="6" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="164"/>
-      <c r="B6" s="123" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="117"/>
+    </row>
+    <row r="6" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="176"/>
+      <c r="B6" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="164"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="171" x14ac:dyDescent="0.3">
+      <c r="A7" s="176"/>
+      <c r="B7" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="164"/>
-      <c r="B8" s="123" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="176"/>
+      <c r="B8" s="107" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="D8" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A9" s="164"/>
-      <c r="B9" s="123" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="176"/>
+      <c r="B9" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="164"/>
-      <c r="B10" s="123" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="176"/>
+      <c r="B10" s="107" t="s">
         <v>567</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" ht="243.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="164"/>
-      <c r="B11" s="123" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="243.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="176"/>
+      <c r="B11" s="107" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="107" t="s">
         <v>574</v>
       </c>
-      <c r="D11" s="224" t="s">
+      <c r="D11" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="221"/>
-    </row>
-    <row r="12" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="164" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="176" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
-    </row>
-    <row r="13" spans="1:7" ht="143" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="164"/>
-      <c r="B13" s="123" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="134"/>
+    </row>
+    <row r="13" spans="1:7" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="176"/>
+      <c r="B13" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="224" t="s">
+      <c r="D13" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="221"/>
-    </row>
-    <row r="14" spans="1:7" ht="172.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="164"/>
-      <c r="B14" s="123" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="176"/>
+      <c r="B14" s="107" t="s">
         <v>565</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="221"/>
-    </row>
-    <row r="15" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="164"/>
-      <c r="B15" s="123" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="128"/>
+    </row>
+    <row r="15" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="176"/>
+      <c r="B15" s="107" t="s">
         <v>564</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="D15" s="224" t="s">
+      <c r="D15" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="221"/>
-    </row>
-    <row r="16" spans="1:7" ht="230" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
-      <c r="B16" s="123" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="128"/>
+    </row>
+    <row r="16" spans="1:7" ht="228" x14ac:dyDescent="0.3">
+      <c r="A16" s="176"/>
+      <c r="B16" s="107" t="s">
         <v>540</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="107" t="s">
         <v>577</v>
       </c>
-      <c r="D16" s="224" t="s">
+      <c r="D16" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="221"/>
-    </row>
-    <row r="17" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="164" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="128"/>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="233"/>
-    </row>
-    <row r="18" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="164"/>
-      <c r="B18" s="123" t="s">
+      <c r="E17" s="133"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="134"/>
+    </row>
+    <row r="18" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="176"/>
+      <c r="B18" s="107" t="s">
         <v>535</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="107" t="s">
         <v>431</v>
       </c>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="221"/>
-    </row>
-    <row r="19" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
-      <c r="B19" s="123" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="128"/>
+    </row>
+    <row r="19" spans="1:7" ht="94.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="176"/>
+      <c r="B19" s="107" t="s">
         <v>536</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="221"/>
-    </row>
-    <row r="20" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="164"/>
-      <c r="B20" s="123" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="176"/>
+      <c r="B20" s="107" t="s">
         <v>537</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="224" t="s">
+      <c r="D20" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="221"/>
-    </row>
-    <row r="21" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="164"/>
-      <c r="B21" s="123" t="s">
+      <c r="E20" s="84"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="128"/>
+    </row>
+    <row r="21" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="176"/>
+      <c r="B21" s="107" t="s">
         <v>538</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="107" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="224" t="s">
+      <c r="D21" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="221"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="220"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="128"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3QjUp/6HvUoHRhl9Z5lPiVnb+JWMdVr8HoRg6q80KuJhHFQLlNE2+f05IWWDawtPh1as3S1s127W1QT/8T6Hhw==" saltValue="PG1neoupcDGzPhrv+qSK8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jPrLgRv53AOOjZr6hUg5VNH/0nDPI6fvbRPTuOckhIjNFfrJf+JbC+OSvO09xBcLtdfY2389lKFIFS/7iMGJpQ==" saltValue="z9Ql8xdSGiUxIaOpJo4m1A==" spinCount="100000" sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -10394,651 +10375,645 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="235" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="120" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A4" s="127" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="157" t="s">
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="169" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="107" t="s">
         <v>434</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="224" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="157"/>
-      <c r="B6" s="123" t="s">
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="154.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="169"/>
+      <c r="B6" s="107" t="s">
         <v>436</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="157" t="s">
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="82.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="107" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="157"/>
-      <c r="B8" s="123" t="s">
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A8" s="169"/>
+      <c r="B8" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="157"/>
-      <c r="B9" s="123" t="s">
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="169"/>
+      <c r="B9" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="123" t="s">
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="169"/>
+      <c r="B10" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A11" s="157"/>
-      <c r="B11" s="123" t="s">
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="169"/>
+      <c r="B11" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="224" t="s">
+      <c r="D11" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="221"/>
-    </row>
-    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A12" s="157"/>
-      <c r="B12" s="123" t="s">
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="169"/>
+      <c r="B12" s="107" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="228" t="s">
+      <c r="D12" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="221"/>
-    </row>
-    <row r="13" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A13" s="157"/>
-      <c r="B13" s="123" t="s">
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.3">
+      <c r="A13" s="169"/>
+      <c r="B13" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="107" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="224" t="s">
+      <c r="D13" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="221"/>
-    </row>
-    <row r="14" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="164" t="s">
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A14" s="176" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="107" t="s">
         <v>445</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="164" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="221"/>
-    </row>
-    <row r="15" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A15" s="164"/>
-      <c r="B15" s="123" t="s">
+      <c r="G14" s="128"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="176"/>
+      <c r="B15" s="107" t="s">
         <v>446</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="224" t="s">
+      <c r="C15" s="164"/>
+      <c r="D15" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="221"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
-      <c r="B16" s="123" t="s">
+      <c r="G15" s="128"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A16" s="176"/>
+      <c r="B16" s="107" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="109" t="s">
+      <c r="C16" s="164"/>
+      <c r="D16" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="221"/>
-    </row>
-    <row r="17" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A17" s="126" t="s">
+      <c r="G16" s="128"/>
+    </row>
+    <row r="17" spans="1:7" ht="136.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A17" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="107" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="107" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="221"/>
-    </row>
-    <row r="18" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="164" t="s">
+      <c r="G17" s="128"/>
+    </row>
+    <row r="18" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A18" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="107" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="221"/>
-    </row>
-    <row r="19" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
-      <c r="B19" s="123" t="s">
+      <c r="G18" s="128"/>
+    </row>
+    <row r="19" spans="1:7" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="176"/>
+      <c r="B19" s="107" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="107" t="s">
         <v>578</v>
       </c>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="221"/>
-    </row>
-    <row r="20" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="164"/>
-      <c r="B20" s="123" t="s">
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="176"/>
+      <c r="B20" s="107" t="s">
         <v>543</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="107" t="s">
         <v>451</v>
       </c>
-      <c r="D20" s="224" t="s">
+      <c r="D20" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="221"/>
-    </row>
-    <row r="21" spans="1:7" ht="218.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="127" t="s">
+      <c r="G20" s="128"/>
+    </row>
+    <row r="21" spans="1:7" ht="216.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="107" t="s">
         <v>363</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="221"/>
-    </row>
-    <row r="22" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A22" s="164" t="s">
+      <c r="G21" s="128"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="176" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="107" t="s">
         <v>452</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="164" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="221"/>
-    </row>
-    <row r="23" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A23" s="164"/>
-      <c r="B23" s="123" t="s">
+      <c r="G22" s="128"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="176"/>
+      <c r="B23" s="107" t="s">
         <v>453</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="224" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="221"/>
-    </row>
-    <row r="24" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A24" s="164"/>
-      <c r="B24" s="123" t="s">
+      <c r="G23" s="128"/>
+    </row>
+    <row r="24" spans="1:7" ht="70.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="176"/>
+      <c r="B24" s="107" t="s">
         <v>454</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="224" t="s">
+      <c r="C24" s="164"/>
+      <c r="D24" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="221"/>
-    </row>
-    <row r="25" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="164"/>
-      <c r="B25" s="123" t="s">
+      <c r="G24" s="128"/>
+    </row>
+    <row r="25" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="176"/>
+      <c r="B25" s="107" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="224" t="s">
+      <c r="C25" s="164"/>
+      <c r="D25" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="221"/>
-    </row>
-    <row r="26" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="164"/>
-      <c r="B26" s="123" t="s">
+      <c r="G25" s="128"/>
+    </row>
+    <row r="26" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="176"/>
+      <c r="B26" s="107" t="s">
         <v>456</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="224" t="s">
+      <c r="C26" s="164"/>
+      <c r="D26" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="221"/>
-    </row>
-    <row r="27" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="164" t="s">
+      <c r="G26" s="128"/>
+    </row>
+    <row r="27" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="107" t="s">
         <v>457</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="107" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="224" t="s">
+      <c r="D27" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="221"/>
-    </row>
-    <row r="28" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A28" s="164"/>
-      <c r="B28" s="123" t="s">
+      <c r="G27" s="128"/>
+    </row>
+    <row r="28" spans="1:7" ht="119.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="176"/>
+      <c r="B28" s="107" t="s">
         <v>469</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="224" t="s">
+      <c r="D28" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="221"/>
-    </row>
-    <row r="29" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A29" s="164"/>
-      <c r="B29" s="123" t="s">
+      <c r="G28" s="128"/>
+    </row>
+    <row r="29" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="176"/>
+      <c r="B29" s="107" t="s">
         <v>468</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="D29" s="224" t="s">
+      <c r="D29" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="221"/>
-    </row>
-    <row r="30" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="164" t="s">
+      <c r="G29" s="128"/>
+    </row>
+    <row r="30" spans="1:7" ht="153.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="176" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="107" t="s">
         <v>467</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="C30" s="164" t="s">
         <v>332</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="221"/>
-    </row>
-    <row r="31" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A31" s="164"/>
-      <c r="B31" s="123" t="s">
+      <c r="G30" s="128"/>
+    </row>
+    <row r="31" spans="1:7" ht="141.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="176"/>
+      <c r="B31" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="224" t="s">
+      <c r="C31" s="164"/>
+      <c r="D31" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="221"/>
-    </row>
-    <row r="32" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="164"/>
-      <c r="B32" s="123" t="s">
+      <c r="G31" s="128"/>
+    </row>
+    <row r="32" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="176"/>
+      <c r="B32" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="221"/>
-    </row>
-    <row r="33" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="164"/>
-      <c r="B33" s="123" t="s">
+      <c r="G32" s="128"/>
+    </row>
+    <row r="33" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="176"/>
+      <c r="B33" s="107" t="s">
         <v>464</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="224" t="s">
+      <c r="D33" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="221"/>
-    </row>
-    <row r="34" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A34" s="164"/>
-      <c r="B34" s="123" t="s">
+      <c r="G33" s="128"/>
+    </row>
+    <row r="34" spans="1:7" ht="95.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="176"/>
+      <c r="B34" s="107" t="s">
         <v>461</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="224" t="s">
+      <c r="D34" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="221"/>
-    </row>
-    <row r="35" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="164"/>
-      <c r="B35" s="123" t="s">
+      <c r="G34" s="128"/>
+    </row>
+    <row r="35" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="176"/>
+      <c r="B35" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="D35" s="224" t="s">
+      <c r="D35" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="221"/>
-    </row>
-    <row r="36" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A36" s="157" t="s">
+      <c r="G35" s="128"/>
+    </row>
+    <row r="36" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="169" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="107" t="s">
         <v>463</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="224" t="s">
+      <c r="D36" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="221"/>
-    </row>
-    <row r="37" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A37" s="157"/>
-      <c r="B37" s="123" t="s">
+      <c r="G36" s="128"/>
+    </row>
+    <row r="37" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="169"/>
+      <c r="B37" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="224" t="s">
+      <c r="D37" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="84"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="221"/>
-    </row>
-    <row r="38" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="126" t="s">
+      <c r="G37" s="128"/>
+    </row>
+    <row r="38" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A38" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="107" t="s">
         <v>544</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="D38" s="224" t="s">
+      <c r="D38" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="84"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="221"/>
-    </row>
-    <row r="39" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A39" s="126" t="s">
+      <c r="G38" s="128"/>
+    </row>
+    <row r="39" spans="1:7" ht="114" x14ac:dyDescent="0.3">
+      <c r="A39" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="107" t="s">
         <v>458</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="D39" s="224" t="s">
+      <c r="D39" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="221"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="220"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="220"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="220"/>
+      <c r="G39" s="128"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="72"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="114"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="114"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="72"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EHTHV+C+D3EiyvDFx/zq86HGVezDhXb0FlpGENscI2jwyXOEADf75JyCFw7eL0ZQ1bwsx49MWUGIMe9SJYdn9g==" saltValue="dpwVGFPH/GZ2Hx/6vEL+SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XNumyEaGS81+RrFUTc93YyPsoZNWQDIQmaIE1IlKsS8Lt4HebjXI8qVvIHQKSs+3tVlCwQZZYXO5SrkNoIk2bA==" saltValue="8DnBM45TcAF8uebk20/7Kw==" spinCount="100000" sheet="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C30:C31"/>
@@ -11046,6 +11021,12 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11077,215 +11058,215 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="235" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="120" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="168" t="s">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-    </row>
-    <row r="4" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="165" t="s">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+    </row>
+    <row r="4" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A5" s="165"/>
-      <c r="B5" s="123" t="s">
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="177"/>
+      <c r="B5" s="107" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="233"/>
-    </row>
-    <row r="6" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="165"/>
-      <c r="B6" s="123" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="134"/>
+    </row>
+    <row r="6" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="177"/>
+      <c r="B6" s="107" t="s">
         <v>472</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>579</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A7" s="165"/>
-      <c r="B7" s="123" t="s">
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="177"/>
+      <c r="B7" s="107" t="s">
         <v>473</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>364</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="165"/>
-      <c r="B8" s="123" t="s">
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="177"/>
+      <c r="B8" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>338</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A9" s="165"/>
-      <c r="B9" s="123" t="s">
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="118.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="177"/>
+      <c r="B9" s="107" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A10" s="128" t="s">
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="107" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" ht="161" x14ac:dyDescent="0.35">
-      <c r="A11" s="166" t="s">
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="153" x14ac:dyDescent="0.3">
+      <c r="A11" s="178" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="107" t="s">
         <v>546</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="224" t="s">
+      <c r="D11" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="221"/>
-    </row>
-    <row r="12" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="166"/>
-      <c r="B12" s="123" t="s">
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="178"/>
+      <c r="B12" s="107" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="221"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="220"/>
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1TNS3KGAlTnASG7fCAHQ/qStECpp1+9hCkuY4V3qh2Z8GrHIKfaZLjg81X0aMtH3szyk7WhDNn2YRiwjWl6Y6g==" saltValue="COjnhdBI6tnD2Q6Z00nlwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WkjtE4dcw7zpn4FoLzUwzKFBDlcpfCdLKt/KYC8Y7lg0LWm9p1IgWjcF1tPxfp45028wZy0R5GVgDBcObDtDYQ==" saltValue="6m1eZDuTFYOhgFDoztxu6g==" spinCount="100000" sheet="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A11:A12"/>
@@ -11322,335 +11303,336 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="93" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A4" s="171" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+    </row>
+    <row r="4" spans="1:7" ht="94.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="91" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="164" t="s">
         <v>480</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-    </row>
-    <row r="5" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="171"/>
-      <c r="B5" s="102" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="183"/>
+      <c r="B5" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="164"/>
+      <c r="D5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
-    </row>
-    <row r="6" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A6" s="171"/>
-      <c r="B6" s="102" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="93" x14ac:dyDescent="0.3">
+      <c r="A6" s="183"/>
+      <c r="B6" s="91" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="164"/>
+      <c r="D6" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:7" ht="161" x14ac:dyDescent="0.35">
-      <c r="A7" s="171" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="171"/>
-      <c r="B8" s="102" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="183"/>
+      <c r="B8" s="91" t="s">
         <v>547</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="171"/>
-      <c r="B9" s="122" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="183"/>
+      <c r="B9" s="106" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-    </row>
-    <row r="10" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="171" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="183" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="91" t="s">
         <v>549</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-    </row>
-    <row r="11" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="171"/>
-      <c r="B11" s="102" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A11" s="183"/>
+      <c r="B11" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-    </row>
-    <row r="12" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="171"/>
-      <c r="B12" s="122" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="177" x14ac:dyDescent="0.3">
+      <c r="A12" s="183"/>
+      <c r="B12" s="106" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-    </row>
-    <row r="13" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="172" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="184" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="106" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-    </row>
-    <row r="14" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A14" s="172"/>
-      <c r="B14" s="102" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" ht="118.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="184"/>
+      <c r="B14" s="91" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-    </row>
-    <row r="15" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="172"/>
-      <c r="B15" s="122" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="128"/>
+    </row>
+    <row r="15" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A15" s="184"/>
+      <c r="B15" s="106" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-    </row>
-    <row r="16" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="172"/>
-      <c r="B16" s="122" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="128"/>
+    </row>
+    <row r="16" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A16" s="184"/>
+      <c r="B16" s="106" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-    </row>
-    <row r="17" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="171" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="128"/>
+    </row>
+    <row r="17" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-    </row>
-    <row r="18" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="171"/>
-      <c r="B18" s="102" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="128"/>
+    </row>
+    <row r="18" spans="1:7" ht="171" x14ac:dyDescent="0.3">
+      <c r="A18" s="183"/>
+      <c r="B18" s="91" t="s">
         <v>482</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-    </row>
-    <row r="19" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="171"/>
-      <c r="B19" s="102" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="128"/>
+    </row>
+    <row r="19" spans="1:7" ht="82.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="183"/>
+      <c r="B19" s="91" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-    </row>
-    <row r="20" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A20" s="171"/>
-      <c r="B20" s="102" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.3">
+      <c r="A20" s="183"/>
+      <c r="B20" s="91" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="70"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="128"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="68"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+xsNgQ3s3wyLkCyrMCO0qxpSnQht6kYIGIKfxsb9G2QaUuwOFRKgeiMjkHtqbbr+eyfzUeTY1IXpiQPl+9Celg==" saltValue="fUNPuzQNw4CFybyIoAJm8w==" spinCount="100000" sheet="1"/>
   <mergeCells count="8">
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A2:G2"/>
@@ -11691,151 +11673,152 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="93" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A4" s="171" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.3">
+      <c r="A4" s="183" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="91" t="s">
         <v>486</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="80"/>
-    </row>
-    <row r="5" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A5" s="171"/>
-      <c r="B5" s="102" t="s">
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="183"/>
+      <c r="B5" s="91" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="80"/>
-    </row>
-    <row r="6" spans="1:7" ht="161" x14ac:dyDescent="0.35">
-      <c r="A6" s="171"/>
-      <c r="B6" s="102" t="s">
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="183"/>
+      <c r="B6" s="91" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="171"/>
-      <c r="B7" s="102" t="s">
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="183"/>
+      <c r="B7" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A8" s="171"/>
-      <c r="B8" s="102" t="s">
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="117" x14ac:dyDescent="0.3">
+      <c r="A8" s="183"/>
+      <c r="B8" s="91" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="67"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="65"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="A3JoqnMFWKblCCVOIOoC/O7Kj83TS3CCyap9nanGwYX0bsfvFlGt4ZuoP6WVIz9jr4cuLJfZw9ek8WyQsDvNSA==" saltValue="oRzijxPacz5tQglQozonDw==" spinCount="100000" sheet="1"/>
   <mergeCells count="3">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A3:G3"/>
@@ -11871,296 +11854,297 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="93" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="170" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="182" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-    </row>
-    <row r="4" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="171" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+    </row>
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A4" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="106" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="80"/>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="171"/>
-      <c r="B5" s="114" t="s">
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="183"/>
+      <c r="B5" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="105"/>
-    </row>
-    <row r="6" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A6" s="171"/>
-      <c r="B6" s="122" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="134"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="183"/>
+      <c r="B6" s="106" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="171"/>
-      <c r="B7" s="122" t="s">
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="330.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="183"/>
+      <c r="B7" s="106" t="s">
         <v>557</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="171"/>
-      <c r="B8" s="122" t="s">
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="183"/>
+      <c r="B8" s="106" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:7" ht="184" x14ac:dyDescent="0.35">
-      <c r="A9" s="171"/>
-      <c r="B9" s="122" t="s">
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="183"/>
+      <c r="B9" s="106" t="s">
         <v>559</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="80"/>
-    </row>
-    <row r="10" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="171"/>
-      <c r="B10" s="83" t="s">
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="183"/>
+      <c r="B10" s="77" t="s">
         <v>491</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="171"/>
-      <c r="B11" s="84" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="134"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="183"/>
+      <c r="B11" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="186" t="s">
         <v>560</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="163" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="80"/>
-    </row>
-    <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A12" s="171"/>
-      <c r="B12" s="85" t="s">
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="183"/>
+      <c r="B12" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="80"/>
-    </row>
-    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A13" s="171"/>
-      <c r="B13" s="85" t="s">
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="183"/>
+      <c r="B13" s="79" t="s">
         <v>493</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="80"/>
-    </row>
-    <row r="14" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="171"/>
-      <c r="B14" s="85" t="s">
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="183"/>
+      <c r="B14" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="80"/>
-    </row>
-    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="173" t="s">
+      <c r="G14" s="128"/>
+    </row>
+    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="185" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="105"/>
-    </row>
-    <row r="16" spans="1:7" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="173"/>
-      <c r="B16" s="86" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="134"/>
+    </row>
+    <row r="16" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="185"/>
+      <c r="B16" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="186" t="s">
         <v>561</v>
       </c>
-      <c r="D16" s="175" t="s">
+      <c r="D16" s="163" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="80"/>
-    </row>
-    <row r="17" spans="1:7" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="173"/>
-      <c r="B17" s="86" t="s">
+      <c r="G16" s="128"/>
+    </row>
+    <row r="17" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="185"/>
+      <c r="B17" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="80"/>
-    </row>
-    <row r="18" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="173"/>
-      <c r="B18" s="86" t="s">
+      <c r="G17" s="128"/>
+    </row>
+    <row r="18" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="185"/>
+      <c r="B18" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="80"/>
-    </row>
-    <row r="19" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="173"/>
-      <c r="B19" s="86" t="s">
+      <c r="G18" s="128"/>
+    </row>
+    <row r="19" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="185"/>
+      <c r="B19" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="80"/>
-    </row>
-    <row r="20" spans="1:7" ht="299" x14ac:dyDescent="0.35">
-      <c r="A20" s="101" t="s">
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7" ht="296.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A20" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>563</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="79" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="80"/>
+      <c r="G20" s="128"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0ctrUJSXrLflrIe612yXH1y72S0YBnKiJizxngx6temR6ORwqTQNWlSCxnacH79GsgGWqgKfRgEOoQCcCP9iA==" saltValue="Eb4KaO8nRvG9qMuiuhBcyg==" spinCount="100000" sheet="1"/>
   <mergeCells count="8">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -12201,91 +12185,92 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
     <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="67"/>
-    </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="177" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
+      <c r="B2" s="188"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="96" t="s">
+      <c r="B4" s="125"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="96" t="s">
+      <c r="B5" s="123"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="96" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="70"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="73"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="73"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="68"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="71"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="71"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="oj/wfS7XamZt7XZ73UIHoMwW10ujafld26PSHeAWenyGJhQuv1pR+isXjpdUhKbiju0TMXIEOHWiYCSYT/w6BQ==" saltValue="swF/E4Z6KRyp/WXbQCbE8w==" spinCount="100000" sheet="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -12315,42 +12300,42 @@
       <selection activeCell="A2" sqref="A2:E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="181" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="183"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="178" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="227"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
-    </row>
-    <row r="4" spans="1:5" ht="207" x14ac:dyDescent="0.35">
-      <c r="A4" s="184" t="s">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+    </row>
+    <row r="4" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="201" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="207.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="185"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="202"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -12360,19 +12345,19 @@
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="218.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="184" t="s">
+    <row r="6" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="201" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="207.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="185"/>
+    <row r="7" spans="1:5" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="202"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
@@ -12382,21 +12367,21 @@
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A8" s="184" t="s">
+    <row r="8" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A8" s="201" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="185"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="202"/>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -12406,8 +12391,8 @@
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="186"/>
+    <row r="10" spans="1:5" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="203"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
@@ -12417,28 +12402,28 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="178" t="s">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-    </row>
-    <row r="12" spans="1:5" ht="184" x14ac:dyDescent="0.35">
-      <c r="A12" s="184" t="s">
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="224"/>
+    </row>
+    <row r="12" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="201" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="185"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="137.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="202"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
@@ -12448,19 +12433,19 @@
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="138" x14ac:dyDescent="0.35">
-      <c r="A14" s="187" t="s">
+    <row r="14" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A14" s="205" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" ht="104" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="188"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="206"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -12470,11 +12455,11 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A16" s="187" t="s">
+    <row r="16" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -12483,8 +12468,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="189"/>
+    <row r="17" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A17" s="204"/>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
@@ -12494,32 +12479,32 @@
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="188"/>
+    <row r="18" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="206"/>
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="69" x14ac:dyDescent="0.35">
-      <c r="A19" s="184" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A19" s="201" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="185"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="202"/>
       <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
@@ -12529,119 +12514,119 @@
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="186"/>
+    <row r="21" spans="1:5" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="203"/>
       <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="190" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="193"/>
-    </row>
-    <row r="23" spans="1:5" ht="132.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="185" t="s">
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="221"/>
+    </row>
+    <row r="23" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A24" s="185"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="202"/>
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="185"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="202"/>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" ht="173" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="186"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="203"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" ht="150" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="29" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="33" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" ht="126" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="190" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="193"/>
-    </row>
-    <row r="30" spans="1:5" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="184" t="s">
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="221"/>
+    </row>
+    <row r="30" spans="1:5" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" ht="92" x14ac:dyDescent="0.35">
-      <c r="A31" s="185"/>
-      <c r="B31" s="23" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="202"/>
+      <c r="B31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" ht="196" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="186"/>
+    <row r="32" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="203"/>
       <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
@@ -12651,266 +12636,266 @@
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="127" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="29" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="190" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="193"/>
-    </row>
-    <row r="36" spans="1:5" ht="120" x14ac:dyDescent="0.35">
-      <c r="A36" s="37" t="s">
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="221"/>
+    </row>
+    <row r="36" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5" ht="127" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="39"/>
-      <c r="B37" s="15" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="1:5" ht="126" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="37"/>
+      <c r="B37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-    </row>
-    <row r="38" spans="1:5" ht="230" x14ac:dyDescent="0.35">
-      <c r="A38" s="39"/>
-      <c r="B38" s="15" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42" t="s">
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="379.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
-      <c r="B39" s="15" t="s">
+    <row r="39" spans="1:5" ht="364.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="115" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
-      <c r="B40" s="15" t="s">
+    <row r="40" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="115" x14ac:dyDescent="0.35">
-      <c r="A41" s="39"/>
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="39"/>
-      <c r="B42" s="15" t="s">
+    <row r="42" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="43"/>
-      <c r="B43" s="16" t="s">
+    <row r="43" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="41"/>
+      <c r="B43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="127" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:5" ht="126" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" ht="138" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
       <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="1:5" ht="115" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="44"/>
+    <row r="47" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
+    <row r="48" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="43"/>
       <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="28"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="150" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="187" t="s">
+    <row r="49" spans="1:5" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="205" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-    </row>
-    <row r="50" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="189"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+    </row>
+    <row r="50" spans="1:5" ht="330.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="204"/>
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A51" s="189"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="204"/>
       <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="27"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="195.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="189"/>
+    <row r="52" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="204"/>
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="184.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="188"/>
+    <row r="53" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="206"/>
       <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="28"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="190" t="s">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="193"/>
-    </row>
-    <row r="55" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="29" t="s">
+      <c r="B54" s="219"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="221"/>
+    </row>
+    <row r="55" spans="1:5" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="36"/>
-    </row>
-    <row r="56" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="187" t="s">
+      <c r="D55" s="29"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -12919,8 +12904,8 @@
       <c r="D56" s="5"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="188"/>
+    <row r="57" spans="1:5" ht="399.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="206"/>
       <c r="B57" s="4" t="s">
         <v>103</v>
       </c>
@@ -12930,30 +12915,30 @@
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="207" x14ac:dyDescent="0.35">
-      <c r="A58" s="184" t="s">
+    <row r="58" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="201" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="185"/>
-      <c r="B59" s="47" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="202"/>
+      <c r="B59" s="45" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:5" ht="230" x14ac:dyDescent="0.35">
-      <c r="A60" s="185"/>
+    <row r="60" spans="1:5" ht="228" x14ac:dyDescent="0.3">
+      <c r="A60" s="202"/>
       <c r="B60" s="2" t="s">
         <v>107</v>
       </c>
@@ -12961,44 +12946,44 @@
       <c r="D60" s="5"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:5" ht="207" x14ac:dyDescent="0.35">
-      <c r="A61" s="185"/>
-      <c r="B61" s="23" t="s">
+    <row r="61" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="202"/>
+      <c r="B61" s="21" t="s">
         <v>108</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" ht="46" x14ac:dyDescent="0.35">
-      <c r="A62" s="185"/>
-      <c r="B62" s="23" t="s">
+    <row r="62" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="202"/>
+      <c r="B62" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="185"/>
-      <c r="B63" s="23" t="s">
+    <row r="63" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A63" s="202"/>
+      <c r="B63" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" ht="230.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="186"/>
+    <row r="64" spans="1:5" ht="228.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="203"/>
       <c r="B64" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="189" t="s">
+    <row r="65" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="204" t="s">
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -13010,8 +12995,8 @@
       <c r="D65" s="5"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:5" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="189"/>
+    <row r="66" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A66" s="204"/>
       <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
@@ -13021,28 +13006,28 @@
       <c r="D66" s="6"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="104" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="189"/>
+    <row r="67" spans="1:5" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="204"/>
       <c r="B67" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="311" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="29" t="s">
+    <row r="68" spans="1:5" ht="297" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="32"/>
-    </row>
-    <row r="69" spans="1:5" ht="138" x14ac:dyDescent="0.35">
-      <c r="A69" s="187" t="s">
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="205" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -13054,8 +13039,8 @@
       <c r="D69" s="5"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:5" ht="115" x14ac:dyDescent="0.35">
-      <c r="A70" s="189"/>
+    <row r="70" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A70" s="204"/>
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
@@ -13065,8 +13050,8 @@
       <c r="D70" s="6"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="173" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="188"/>
+    <row r="71" spans="1:5" ht="171.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="206"/>
       <c r="B71" s="4" t="s">
         <v>121</v>
       </c>
@@ -13076,120 +13061,120 @@
       <c r="D71" s="6"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="196" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="29" t="s">
+    <row r="72" spans="1:5" ht="194.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="32"/>
-    </row>
-    <row r="73" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="187" t="s">
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="30"/>
+    </row>
+    <row r="73" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="205" t="s">
         <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="46"/>
-    </row>
-    <row r="74" spans="1:5" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="189"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="44"/>
+    </row>
+    <row r="74" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A74" s="204"/>
       <c r="B74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:5" ht="57.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="189"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="1:5" ht="57" x14ac:dyDescent="0.3">
+      <c r="A75" s="204"/>
       <c r="B75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="53"/>
+      <c r="D75" s="51"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="189"/>
+    <row r="76" spans="1:5" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="204"/>
       <c r="B76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="53"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="188"/>
+    <row r="77" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="206"/>
       <c r="B77" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="48"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="115" x14ac:dyDescent="0.35">
-      <c r="A78" s="184" t="s">
+    <row r="78" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A78" s="201" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" spans="1:5" ht="46" x14ac:dyDescent="0.35">
-      <c r="A79" s="185"/>
-      <c r="B79" s="54" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="202"/>
+      <c r="B79" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="56"/>
-    </row>
-    <row r="80" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="186"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54"/>
+    </row>
+    <row r="80" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="203"/>
       <c r="B80" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="59"/>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" spans="1:5" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="187" t="s">
+      <c r="D80" s="57"/>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" ht="171" x14ac:dyDescent="0.3">
+      <c r="A81" s="205" t="s">
         <v>134</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="18"/>
-    </row>
-    <row r="82" spans="1:5" ht="115" x14ac:dyDescent="0.35">
-      <c r="A82" s="189"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="114" x14ac:dyDescent="0.3">
+      <c r="A82" s="204"/>
       <c r="B82" s="2" t="s">
         <v>136</v>
       </c>
@@ -13199,17 +13184,17 @@
       <c r="D82" s="6"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="69" x14ac:dyDescent="0.35">
-      <c r="A83" s="189"/>
+    <row r="83" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A83" s="204"/>
       <c r="B83" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="46" x14ac:dyDescent="0.35">
-      <c r="A84" s="189"/>
+    <row r="84" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="204"/>
       <c r="B84" s="2" t="s">
         <v>138</v>
       </c>
@@ -13219,8 +13204,8 @@
       <c r="D84" s="6"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="69" x14ac:dyDescent="0.35">
-      <c r="A85" s="189"/>
+    <row r="85" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A85" s="204"/>
       <c r="B85" s="2" t="s">
         <v>139</v>
       </c>
@@ -13230,8 +13215,8 @@
       <c r="D85" s="6"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="69.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="188"/>
+    <row r="86" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="206"/>
       <c r="B86" s="4" t="s">
         <v>140</v>
       </c>
@@ -13241,8 +13226,8 @@
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="264.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="187" t="s">
+    <row r="87" spans="1:5" ht="262.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="205" t="s">
         <v>141</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -13254,189 +13239,189 @@
       <c r="D87" s="5"/>
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="1:5" ht="242" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="188"/>
+    <row r="88" spans="1:5" ht="240" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="206"/>
       <c r="B88" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="207.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="39" t="s">
+    <row r="89" spans="1:5" ht="194.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="58"/>
-    </row>
-    <row r="90" spans="1:5" ht="138.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="33" t="s">
+      <c r="D89" s="55"/>
+      <c r="E89" s="56"/>
+    </row>
+    <row r="90" spans="1:5" ht="137.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="36"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="197" t="s">
+      <c r="D90" s="32"/>
+      <c r="E90" s="34"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="198"/>
-      <c r="C91" s="198"/>
-      <c r="D91" s="198"/>
-      <c r="E91" s="199"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="200" t="s">
+      <c r="B91" s="208"/>
+      <c r="C91" s="208"/>
+      <c r="D91" s="208"/>
+      <c r="E91" s="209"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="210" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="201"/>
-      <c r="C92" s="201"/>
-      <c r="D92" s="201"/>
-      <c r="E92" s="202"/>
-    </row>
-    <row r="93" spans="1:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="203" t="s">
+      <c r="B92" s="211"/>
+      <c r="C92" s="211"/>
+      <c r="D92" s="211"/>
+      <c r="E92" s="212"/>
+    </row>
+    <row r="93" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="213" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="59"/>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5" ht="58" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="204"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:5" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="214"/>
       <c r="B94" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-    </row>
-    <row r="95" spans="1:5" ht="46" x14ac:dyDescent="0.35">
-      <c r="A95" s="204"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="214"/>
       <c r="B95" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="20"/>
-    </row>
-    <row r="96" spans="1:5" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="204"/>
-      <c r="B96" s="47" t="s">
+      <c r="D95" s="50"/>
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="1:5" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="214"/>
+      <c r="B96" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="24"/>
-    </row>
-    <row r="97" spans="1:5" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="204"/>
-      <c r="B97" s="47" t="s">
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A97" s="214"/>
+      <c r="B97" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="24"/>
-    </row>
-    <row r="98" spans="1:5" ht="184.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="205"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="215"/>
       <c r="B98" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="48"/>
+      <c r="D98" s="46"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" ht="104" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="61" t="s">
+    <row r="99" spans="1:5" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="206" t="s">
+    <row r="100" spans="1:5" ht="307.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="216" t="s">
         <v>159</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="20"/>
-    </row>
-    <row r="101" spans="1:5" ht="334" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="207"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="18"/>
+    </row>
+    <row r="101" spans="1:5" ht="319.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="217"/>
       <c r="B101" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="59"/>
-      <c r="E101" s="24"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="194" t="s">
+      <c r="D101" s="57"/>
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="195"/>
-      <c r="C102" s="195"/>
-      <c r="D102" s="195"/>
-      <c r="E102" s="196"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="208" t="s">
+      <c r="B102" s="199"/>
+      <c r="C102" s="199"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="200"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="209"/>
-      <c r="C103" s="209"/>
-      <c r="D103" s="209"/>
-      <c r="E103" s="210"/>
-    </row>
-    <row r="104" spans="1:5" ht="184" x14ac:dyDescent="0.35">
-      <c r="A104" s="213" t="s">
+      <c r="B103" s="190"/>
+      <c r="C103" s="190"/>
+      <c r="D103" s="190"/>
+      <c r="E103" s="191"/>
+    </row>
+    <row r="104" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="194" t="s">
         <v>164</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" ht="92" x14ac:dyDescent="0.35">
-      <c r="A105" s="214"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="18"/>
+    </row>
+    <row r="105" spans="1:5" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="195"/>
       <c r="B105" s="2" t="s">
         <v>166</v>
       </c>
@@ -13446,8 +13431,8 @@
       <c r="D105" s="6"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" ht="219" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="215"/>
+    <row r="106" spans="1:5" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="196"/>
       <c r="B106" s="4" t="s">
         <v>167</v>
       </c>
@@ -13457,11 +13442,11 @@
       <c r="D106" s="7"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A107" s="213" t="s">
+    <row r="107" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="194" t="s">
         <v>168</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="21" t="s">
         <v>169</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -13470,43 +13455,43 @@
       <c r="D107" s="5"/>
       <c r="E107" s="10"/>
     </row>
-    <row r="108" spans="1:5" ht="195.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="214"/>
+    <row r="108" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="195"/>
       <c r="B108" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="62" t="s">
+      <c r="C108" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="62"/>
-      <c r="E108" s="24"/>
-    </row>
-    <row r="109" spans="1:5" ht="173" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="215"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="22"/>
+    </row>
+    <row r="109" spans="1:5" ht="171.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="196"/>
       <c r="B109" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="63" t="s">
+      <c r="C109" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="63"/>
+      <c r="D109" s="61"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="1:5" ht="218.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="211" t="s">
+    <row r="110" spans="1:5" ht="205.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="192" t="s">
         <v>172</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="20"/>
-    </row>
-    <row r="111" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A111" s="212"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="18"/>
+    </row>
+    <row r="111" spans="1:5" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="193"/>
       <c r="B111" s="2" t="s">
         <v>174</v>
       </c>
@@ -13516,30 +13501,30 @@
       <c r="D111" s="6"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" ht="380" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="216"/>
+    <row r="112" spans="1:5" ht="365.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="197"/>
       <c r="B112" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="59"/>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113" spans="1:5" ht="299" x14ac:dyDescent="0.35">
-      <c r="A113" s="211" t="s">
+      <c r="D112" s="57"/>
+      <c r="E112" s="22"/>
+    </row>
+    <row r="113" spans="1:5" ht="285" x14ac:dyDescent="0.3">
+      <c r="A113" s="192" t="s">
         <v>176</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="20"/>
-    </row>
-    <row r="114" spans="1:5" ht="195.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="212"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="18"/>
+    </row>
+    <row r="114" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="193"/>
       <c r="B114" s="2" t="s">
         <v>178</v>
       </c>
@@ -13547,8 +13532,8 @@
       <c r="D114" s="6"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" ht="184" x14ac:dyDescent="0.35">
-      <c r="A115" s="212"/>
+    <row r="115" spans="1:5" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="193"/>
       <c r="B115" s="2" t="s">
         <v>179</v>
       </c>
@@ -13558,8 +13543,8 @@
       <c r="D115" s="6"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" ht="161.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="212"/>
+    <row r="116" spans="1:5" ht="160.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="193"/>
       <c r="B116" s="4" t="s">
         <v>180</v>
       </c>
@@ -13569,21 +13554,21 @@
       <c r="D116" s="6"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" ht="276" x14ac:dyDescent="0.35">
-      <c r="A117" s="211" t="s">
+    <row r="117" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A117" s="192" t="s">
         <v>181</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A118" s="212"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="18"/>
+    </row>
+    <row r="118" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="193"/>
       <c r="B118" s="2" t="s">
         <v>183</v>
       </c>
@@ -13593,17 +13578,17 @@
       <c r="D118" s="6"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="212"/>
-      <c r="B119" s="47" t="s">
+    <row r="119" spans="1:5" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="193"/>
+      <c r="B119" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="59"/>
-      <c r="D119" s="59"/>
-      <c r="E119" s="24"/>
-    </row>
-    <row r="120" spans="1:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="216"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="22"/>
+    </row>
+    <row r="120" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="197"/>
       <c r="B120" s="4" t="s">
         <v>185</v>
       </c>
@@ -13613,30 +13598,30 @@
       <c r="D120" s="7"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="208" t="s">
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="189" t="s">
         <v>186</v>
       </c>
-      <c r="B121" s="209"/>
-      <c r="C121" s="209"/>
-      <c r="D121" s="209"/>
-      <c r="E121" s="210"/>
-    </row>
-    <row r="122" spans="1:5" ht="207" x14ac:dyDescent="0.35">
-      <c r="A122" s="211" t="s">
+      <c r="B121" s="190"/>
+      <c r="C121" s="190"/>
+      <c r="D121" s="190"/>
+      <c r="E121" s="191"/>
+    </row>
+    <row r="122" spans="1:5" ht="193.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="192" t="s">
         <v>187</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" spans="1:5" ht="161" x14ac:dyDescent="0.35">
-      <c r="A123" s="212"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="18"/>
+    </row>
+    <row r="123" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="193"/>
       <c r="B123" s="2" t="s">
         <v>189</v>
       </c>
@@ -13646,8 +13631,8 @@
       <c r="D123" s="6"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="212"/>
+    <row r="124" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="193"/>
       <c r="B124" s="2" t="s">
         <v>190</v>
       </c>
@@ -13657,8 +13642,8 @@
       <c r="D124" s="6"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="212"/>
+    <row r="125" spans="1:5" ht="159.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="193"/>
       <c r="B125" s="2" t="s">
         <v>191</v>
       </c>
@@ -13668,27 +13653,37 @@
       <c r="D125" s="6"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="253.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="212"/>
+    <row r="126" spans="1:5" ht="240" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="193"/>
       <c r="B126" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:E54"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A65:A67"/>
@@ -13701,24 +13696,14 @@
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A93:A98"/>
     <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13744,137 +13729,137 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="217" customWidth="1"/>
-    <col min="5" max="6" width="30.54296875" style="217" customWidth="1"/>
-    <col min="7" max="28" width="8.7265625" style="217"/>
-    <col min="29" max="29" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="112" customWidth="1"/>
+    <col min="5" max="6" width="30.5546875" style="112" customWidth="1"/>
+    <col min="7" max="28" width="8.77734375" style="112"/>
+    <col min="29" max="29" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="147" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="222"/>
-    </row>
-    <row r="4" spans="1:6" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="145" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="126"/>
+    </row>
+    <row r="4" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="155" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="222"/>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="126"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="155" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="222"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="145" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="126"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="155" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="222"/>
-    </row>
-    <row r="7" spans="1:6" ht="77.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="145" t="s">
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="126"/>
+    </row>
+    <row r="7" spans="1:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="155" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="222"/>
-    </row>
-    <row r="8" spans="1:6" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="126"/>
+    </row>
+    <row r="8" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="222"/>
-    </row>
-    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="145" t="s">
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="126"/>
+    </row>
+    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="222"/>
-    </row>
-    <row r="10" spans="1:6" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="145" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="126"/>
+    </row>
+    <row r="10" spans="1:6" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="155" t="s">
         <v>502</v>
       </c>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="222"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="220"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="126"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aJu8LhWFnwW8Ltuh2a4leX73ntUrIo3B7y6y3vg4jiLmENCYt+bkmBi/3S7Xgql3btsSMSN2NAvex3mMVFE57g==" saltValue="lktB6xl7jQtuJ1AGntUAwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lg9tENG9qspIsTtYxHCghxRWKCwm/gjSIEsmJ5mbw8JPvS4GG8upQPa6TmO5+OqnR6g6yFxrbthpREs20tXBjg==" saltValue="gaZQEiUR0L/fysbkFnFZhw==" spinCount="100000" sheet="1"/>
   <mergeCells count="9">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -13898,15 +13883,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>69850</xdr:colOff>
+                <xdr:colOff>68580</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>739140</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>850900</xdr:rowOff>
+                <xdr:rowOff>853440</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13923,13 +13908,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>53340</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>469900</xdr:rowOff>
+                <xdr:rowOff>472440</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>739140</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>990600</xdr:rowOff>
               </to>
@@ -13948,15 +13933,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>53340</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>660400</xdr:rowOff>
+                <xdr:rowOff>662940</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>739140</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>1174750</xdr:rowOff>
+                <xdr:rowOff>1173480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13973,15 +13958,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
+                <xdr:colOff>60960</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>488950</xdr:rowOff>
+                <xdr:rowOff>487680</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>749300</xdr:colOff>
+                <xdr:colOff>746760</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>1003300</xdr:rowOff>
+                <xdr:rowOff>1005840</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -14015,19 +14000,19 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -14045,198 +14030,198 @@
   </sheetPr>
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-    </row>
-    <row r="4" spans="1:30" ht="69" x14ac:dyDescent="0.35">
-      <c r="A4" s="152" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+    </row>
+    <row r="4" spans="1:30" ht="70.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="164" t="s">
         <v>513</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="163" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="221"/>
-      <c r="AD4" s="217" t="s">
+      <c r="G4" s="128"/>
+      <c r="AD4" s="112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="152"/>
-      <c r="B5" s="123" t="s">
+    <row r="5" spans="1:30" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="162"/>
+      <c r="B5" s="107" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="221"/>
-      <c r="AD5" s="217" t="s">
+      <c r="C5" s="164"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="128"/>
+      <c r="AD5" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="168" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="152"/>
-      <c r="B6" s="123" t="s">
+    <row r="6" spans="1:30" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="162"/>
+      <c r="B6" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="221"/>
-      <c r="AD6" s="217" t="s">
+      <c r="C6" s="164"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="128"/>
+      <c r="AD6" s="112" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="152" t="s">
+    <row r="7" spans="1:30" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="107" t="s">
         <v>380</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="164" t="s">
         <v>514</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:30" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="152"/>
-      <c r="B8" s="123" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:30" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="162"/>
+      <c r="B8" s="107" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:30" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
-      <c r="B9" s="123" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:30" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="162"/>
+      <c r="B9" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="107" t="s">
         <v>383</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="220"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="220"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="220"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="114"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="114"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JXbfphqGhlC4+NhqjMoPo0PZ5fVFLHrn7cQZTvC6Ocr842fjdiA9jxkorCtHUaVlLyCap/Yad8fpsQx9iB7nCw==" saltValue="6fASYEiS/DnwfQqFGjoOyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oGql5EcfUi6lukoitn8uHWeeWz+Lhl6a2kaCzVaAezlHY9AQ4o04SkXkxKif2R6MkJLGAsUIIgNi+0UPHVFvbQ==" saltValue="+128rD6t/g/hLTAtbWO2qA==" spinCount="100000" sheet="1"/>
   <mergeCells count="8">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -14271,232 +14256,232 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="156" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-    </row>
-    <row r="4" spans="1:7" ht="138" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+    </row>
+    <row r="4" spans="1:7" ht="136.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A4" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>516</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="223" t="s">
+      <c r="D4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="154"/>
-      <c r="B5" s="123" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="107" t="s">
         <v>517</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="223"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A6" s="154"/>
-      <c r="B6" s="123" t="s">
+      <c r="D5" s="166"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="70.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="165"/>
+      <c r="B6" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="154"/>
-      <c r="B7" s="123" t="s">
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" s="165"/>
+      <c r="B7" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="154"/>
-      <c r="B8" s="123" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="165"/>
+      <c r="B8" s="107" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>303</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="154"/>
-      <c r="B9" s="123" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="165"/>
+      <c r="B9" s="107" t="s">
         <v>519</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="124" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A11" s="154" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="118.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="107" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="224" t="s">
+      <c r="D11" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="221"/>
-    </row>
-    <row r="12" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="154"/>
-      <c r="B12" s="123" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="165"/>
+      <c r="B12" s="107" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="221"/>
-    </row>
-    <row r="13" spans="1:7" ht="222.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="154"/>
-      <c r="B13" s="123" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="222.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="165"/>
+      <c r="B13" s="107" t="s">
         <v>521</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="224" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="221"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="220"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="220"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="114"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZuIwSRlmS2MD3RuPSdzROKG3b2Zqq8s8EKnJlWnOABveyndlj7DgvXhQeFi7xUXYIcoPZTKelHVot/2foSrv/g==" saltValue="huq8pyfpe2FK9utNXWIeEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oI77NuPZhzqQUv7EgK5upiY2F1bIUiZ7hz7ta3Bf5ywrOLfgsasjYRJHogCFSlf+JWg2Z5RSc2LmPBiyq+gsyw==" saltValue="DzE6KVE7oIjIUVeBnN7JMg==" spinCount="100000" sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A11:A13"/>
@@ -14529,173 +14514,173 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="156" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-    </row>
-    <row r="4" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+    </row>
+    <row r="4" spans="1:7" ht="125.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>522</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A5" s="154"/>
-      <c r="B5" s="123" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="107" t="s">
         <v>391</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="154" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="107" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="184" x14ac:dyDescent="0.35">
-      <c r="A7" s="154"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="165"/>
+      <c r="B7" s="107" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="124" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="106.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="107" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="220"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="220"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="220"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="114"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="114"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bd1eSw+zhQl2mHzoz/R/Qm8ftKC1ixuhDhH42IJspsRa6tCMqWzTHqlbKJwDkSh0VfnQFP0OOWCphubUlkBowA==" saltValue="Z3AphEyWG5FCa0Fw3X4lkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UHI6NHpHcnTsqjpqKHwLWJd8D0tghRz7tjqD4vzeP0b6IeTh7oJiL7CwVe2k+sD0d5EYWI/n3WqLhu7Pwu7tHA==" saltValue="tDn9azcTrY+rV5FE+lR62Q==" spinCount="100000" sheet="1"/>
   <mergeCells count="4">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
@@ -14726,189 +14711,189 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" style="217" customWidth="1"/>
-    <col min="3" max="3" width="57.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="112" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="156" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-    </row>
-    <row r="4" spans="1:7" ht="301.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+    </row>
+    <row r="4" spans="1:7" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>569</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="154"/>
-      <c r="B5" s="123" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="107" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>571</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="154" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="154"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="165"/>
+      <c r="B7" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="154"/>
-      <c r="B8" s="123" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A8" s="165"/>
+      <c r="B8" s="107" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="184" x14ac:dyDescent="0.35">
-      <c r="A9" s="154" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="107" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="154"/>
-      <c r="B10" s="123" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="165"/>
+      <c r="B10" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="220"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mB9wUBuQy6FM9pIuM7+GIEhbvSqySxjADidX//ztr8/35soxIQZZBkSf8JbZIbsSfYmEu7rFPIT5rQvfsVF7XA==" saltValue="T0xZQYTmINNTmFqCYYfs8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DgL72uLydlhDBiPouu+AKH8HqhkahJ/HiEj2D/Va3/nDcXgGj/LnFBzeqP0WSYVtT9629mBqU3+KLxV9h4DfEA==" saltValue="EUoYBM1z1ifLSs0CTlcd4g==" spinCount="100000" sheet="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A4:A5"/>
@@ -14940,142 +14925,142 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="156" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-    </row>
-    <row r="4" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+    </row>
+    <row r="4" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="154"/>
-      <c r="B5" s="123" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="171" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="107" t="s">
         <v>525</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="154" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="107" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="154"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="165"/>
+      <c r="B7" s="107" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="220"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bbR5/7EyEp8hZb22j2EPy1QQ/0m+Oh5pA0tXtpKI2PAN9ysdafhl4sCvLaK/7QMC55t8BE2fWiym0jdloBdD5g==" saltValue="j/OyyQlng+Fu3EfOSq4hfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lIvz7+CGJzuHPyvrqSOqZvhI71uXq+peS9tWRiScrvy3IDg5Xppgl1pxuimzOVjT36//EAa4FO8/KjE6BjDzpQ==" saltValue="YMLv3X1u4R/lQW2oCC2Kmw==" spinCount="100000" sheet="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -15106,185 +15091,185 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="184" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="123" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="182.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="169"/>
+      <c r="B5" s="107" t="s">
         <v>529</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="157" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="171" x14ac:dyDescent="0.3">
+      <c r="A6" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="107" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="172.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="157"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="171" x14ac:dyDescent="0.3">
+      <c r="A7" s="169"/>
+      <c r="B7" s="107" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="157" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="130.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A8" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="107" t="s">
         <v>531</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="149.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="157"/>
-      <c r="B9" s="123" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="154.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="169"/>
+      <c r="B9" s="107" t="s">
         <v>528</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="224" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="123" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="169"/>
+      <c r="B10" s="107" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="224" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="220"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eShi+e4Y9nlMWhG6SK4Ao15RDOuBRW8fs2Tlo6XGP+lEDrYfU0t0O/XISq4wpqBtnJb1Syu37twMbwPstWA0mg==" saltValue="vQfv/bNMrGRm+v9bYw6/YA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DV9N68vOxNo2nf3/lnkoOPQa0G0YBM61Rf0yjnM3ivl/60SFM36UQ2HU1PvOnTvolhRtg64LQ7sAYtzFJDDU8Q==" saltValue="hE2dYAprhQWvQbeUMuhnqQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -15316,244 +15301,244 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="217" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="217" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="217" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="217" customWidth="1"/>
-    <col min="6" max="7" width="30.54296875" style="217" customWidth="1"/>
-    <col min="8" max="29" width="8.7265625" style="217"/>
-    <col min="30" max="30" width="0" style="217" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="217"/>
+    <col min="1" max="1" width="30.5546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="112" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="112" customWidth="1"/>
+    <col min="6" max="7" width="30.5546875" style="112" customWidth="1"/>
+    <col min="8" max="29" width="8.77734375" style="112"/>
+    <col min="30" max="30" width="0" style="112" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="99" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="99" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:7" ht="115" x14ac:dyDescent="0.35">
-      <c r="A4" s="157" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.3">
+      <c r="A4" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="107" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="221"/>
-    </row>
-    <row r="5" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="123" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="169"/>
+      <c r="B5" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="221"/>
-    </row>
-    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="157" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="107" t="s">
         <v>533</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="107" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="221"/>
-    </row>
-    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.35">
-      <c r="A7" s="157"/>
-      <c r="B7" s="123" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="169"/>
+      <c r="B7" s="107" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="107" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="221"/>
-    </row>
-    <row r="8" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="157" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A8" s="169" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="107" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="221"/>
-    </row>
-    <row r="9" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="157"/>
-      <c r="B9" s="123" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="128"/>
+    </row>
+    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="169"/>
+      <c r="B9" s="107" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="107" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="228" t="s">
+      <c r="D9" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="221"/>
-    </row>
-    <row r="10" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="123" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="128"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="169"/>
+      <c r="B10" s="107" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="228" t="s">
+      <c r="D10" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="221"/>
-    </row>
-    <row r="11" spans="1:7" ht="103.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="157" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="107" t="s">
         <v>415</v>
       </c>
-      <c r="D11" s="228" t="s">
+      <c r="D11" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="221"/>
-    </row>
-    <row r="12" spans="1:7" ht="92" x14ac:dyDescent="0.35">
-      <c r="A12" s="157"/>
-      <c r="B12" s="123" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="128"/>
+    </row>
+    <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="169"/>
+      <c r="B12" s="107" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="107" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="228" t="s">
+      <c r="D12" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="221"/>
-    </row>
-    <row r="13" spans="1:7" ht="80.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="157"/>
-      <c r="B13" s="123" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="169"/>
+      <c r="B13" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="D13" s="228" t="s">
+      <c r="D13" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="221"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="220"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="220"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="114"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vv1dpOxXUyLsyZFTpbfigc6vOBE2z8PyM6XEFf6gqnJ1rN5YDcUzo49nFkF7Ah17oI+gTX3bBGdeHivpeRNNMg==" saltValue="biNZmQd16zj/lH7HMl0E2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CHlcfF1X7NFS74R56JS2ncBme0kYvV00vLZIo8bGC0wwkfDUfxyvexJUIB4hRSZgxjBm43OVy1p3cjXvOjBo0A==" saltValue="BuhUySwfucvYvaUzsUhlnQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -15580,12 +15565,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15703,15 +15685,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12BD2AC-4855-43D9-9007-622134AA9429}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A41FA8-5546-40F9-B912-25CC9CFEE0DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15733,16 +15725,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A41FA8-5546-40F9-B912-25CC9CFEE0DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12BD2AC-4855-43D9-9007-622134AA9429}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>